--- a/presentation/Devis_1.xlsx
+++ b/presentation/Devis_1.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://yncrea-my.sharepoint.com/personal/hugo_demenez_isen_yncrea_fr/Documents/Projet/Projet_2021_Informatique/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://yncrea-my.sharepoint.com/personal/hugo_demenez_isen_yncrea_fr/Documents/Projet/Projet_2021_Informatique/presentation/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="17" documentId="8_{83E689D9-391C-4A2A-8C25-9751A7AD3F1D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{D1089914-B384-4294-9BFA-C71585CD4E16}"/>
+  <xr:revisionPtr revIDLastSave="24" documentId="8_{83E689D9-391C-4A2A-8C25-9751A7AD3F1D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{D886980C-34B9-422A-BE16-49ED9155290C}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15225" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="31">
   <si>
     <t>DEVIS</t>
   </si>
@@ -123,6 +123,9 @@
   </si>
   <si>
     <t>Sauvegardes sur 3 serveurs (Paris, Montréal, Berlin)</t>
+  </si>
+  <si>
+    <t>Maintenance sur 2 ans</t>
   </si>
 </sst>
 </file>
@@ -721,10 +724,40 @@
     <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="26" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="34" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -732,49 +765,19 @@
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="28" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="26" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1183,8 +1186,8 @@
   </sheetPr>
   <dimension ref="A1:G39"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A4" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="B20" sqref="B20:C20"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="E20" sqref="E20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="17.28515625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -1210,12 +1213,12 @@
     </row>
     <row r="2" spans="1:7" ht="31.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A2" s="2"/>
-      <c r="B2" s="69" t="s">
+      <c r="B2" s="81" t="s">
         <v>17</v>
       </c>
-      <c r="C2" s="70"/>
+      <c r="C2" s="82"/>
       <c r="D2" s="26"/>
-      <c r="E2" s="71" t="s">
+      <c r="E2" s="83" t="s">
         <v>0</v>
       </c>
       <c r="F2" s="68"/>
@@ -1223,7 +1226,7 @@
     </row>
     <row r="3" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A3" s="4"/>
-      <c r="B3" s="67" t="s">
+      <c r="B3" s="84" t="s">
         <v>19</v>
       </c>
       <c r="C3" s="68"/>
@@ -1234,7 +1237,7 @@
     </row>
     <row r="4" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A4" s="4"/>
-      <c r="B4" s="72" t="s">
+      <c r="B4" s="85" t="s">
         <v>21</v>
       </c>
       <c r="C4" s="68"/>
@@ -1245,7 +1248,7 @@
     </row>
     <row r="5" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A5" s="4"/>
-      <c r="B5" s="73"/>
+      <c r="B5" s="86"/>
       <c r="C5" s="68"/>
       <c r="D5" s="27"/>
       <c r="E5" s="28"/>
@@ -1353,10 +1356,10 @@
     </row>
     <row r="15" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A15" s="4"/>
-      <c r="B15" s="76" t="s">
+      <c r="B15" s="87" t="s">
         <v>4</v>
       </c>
-      <c r="C15" s="77"/>
+      <c r="C15" s="88"/>
       <c r="D15" s="46" t="s">
         <v>5</v>
       </c>
@@ -1370,10 +1373,10 @@
     </row>
     <row r="16" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A16" s="4"/>
-      <c r="B16" s="74" t="s">
+      <c r="B16" s="79" t="s">
         <v>24</v>
       </c>
-      <c r="C16" s="75"/>
+      <c r="C16" s="80"/>
       <c r="D16" s="48">
         <v>1</v>
       </c>
@@ -1388,10 +1391,10 @@
     </row>
     <row r="17" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A17" s="4"/>
-      <c r="B17" s="80" t="s">
+      <c r="B17" s="77" t="s">
         <v>25</v>
       </c>
-      <c r="C17" s="79"/>
+      <c r="C17" s="76"/>
       <c r="D17" s="50">
         <v>1</v>
       </c>
@@ -1406,10 +1409,10 @@
     </row>
     <row r="18" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A18" s="4"/>
-      <c r="B18" s="78" t="s">
+      <c r="B18" s="75" t="s">
         <v>26</v>
       </c>
-      <c r="C18" s="79"/>
+      <c r="C18" s="76"/>
       <c r="D18" s="52">
         <v>1</v>
       </c>
@@ -1424,10 +1427,10 @@
     </row>
     <row r="19" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A19" s="4"/>
-      <c r="B19" s="80" t="s">
+      <c r="B19" s="77" t="s">
         <v>29</v>
       </c>
-      <c r="C19" s="79"/>
+      <c r="C19" s="76"/>
       <c r="D19" s="50">
         <v>1</v>
       </c>
@@ -1442,20 +1445,26 @@
     </row>
     <row r="20" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A20" s="4"/>
-      <c r="B20" s="78"/>
-      <c r="C20" s="79"/>
-      <c r="D20" s="52"/>
-      <c r="E20" s="53"/>
+      <c r="B20" s="75" t="s">
+        <v>30</v>
+      </c>
+      <c r="C20" s="76"/>
+      <c r="D20" s="52">
+        <v>1</v>
+      </c>
+      <c r="E20" s="53">
+        <v>850</v>
+      </c>
       <c r="F20" s="53">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>850</v>
       </c>
       <c r="G20" s="13"/>
     </row>
     <row r="21" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A21" s="4"/>
-      <c r="B21" s="80"/>
-      <c r="C21" s="79"/>
+      <c r="B21" s="77"/>
+      <c r="C21" s="76"/>
       <c r="D21" s="50"/>
       <c r="E21" s="51"/>
       <c r="F21" s="51">
@@ -1466,8 +1475,8 @@
     </row>
     <row r="22" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A22" s="4"/>
-      <c r="B22" s="78"/>
-      <c r="C22" s="79"/>
+      <c r="B22" s="75"/>
+      <c r="C22" s="76"/>
       <c r="D22" s="52"/>
       <c r="E22" s="53"/>
       <c r="F22" s="53">
@@ -1478,8 +1487,8 @@
     </row>
     <row r="23" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A23" s="4"/>
-      <c r="B23" s="80"/>
-      <c r="C23" s="79"/>
+      <c r="B23" s="77"/>
+      <c r="C23" s="76"/>
       <c r="D23" s="50"/>
       <c r="E23" s="51"/>
       <c r="F23" s="51">
@@ -1490,8 +1499,8 @@
     </row>
     <row r="24" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A24" s="4"/>
-      <c r="B24" s="78"/>
-      <c r="C24" s="79"/>
+      <c r="B24" s="75"/>
+      <c r="C24" s="76"/>
       <c r="D24" s="52"/>
       <c r="E24" s="53"/>
       <c r="F24" s="53">
@@ -1502,8 +1511,8 @@
     </row>
     <row r="25" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A25" s="4"/>
-      <c r="B25" s="80"/>
-      <c r="C25" s="79"/>
+      <c r="B25" s="77"/>
+      <c r="C25" s="76"/>
       <c r="D25" s="50"/>
       <c r="E25" s="51"/>
       <c r="F25" s="51">
@@ -1514,8 +1523,8 @@
     </row>
     <row r="26" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A26" s="4"/>
-      <c r="B26" s="78"/>
-      <c r="C26" s="79"/>
+      <c r="B26" s="75"/>
+      <c r="C26" s="76"/>
       <c r="D26" s="52"/>
       <c r="E26" s="53"/>
       <c r="F26" s="54">
@@ -1534,13 +1543,13 @@
       </c>
       <c r="F27" s="59">
         <f>SUM(F16:F26)</f>
-        <v>5800</v>
+        <v>6650</v>
       </c>
       <c r="G27" s="14"/>
     </row>
     <row r="28" spans="1:7" ht="19.5" customHeight="1" x14ac:dyDescent="0.65">
       <c r="A28" s="4"/>
-      <c r="B28" s="81" t="s">
+      <c r="B28" s="78" t="s">
         <v>9</v>
       </c>
       <c r="C28" s="68"/>
@@ -1550,7 +1559,7 @@
       </c>
       <c r="F28" s="59">
         <f>0.15*F27</f>
-        <v>870</v>
+        <v>997.5</v>
       </c>
       <c r="G28" s="14"/>
     </row>
@@ -1564,7 +1573,7 @@
       </c>
       <c r="F29" s="59">
         <f>F27-F28</f>
-        <v>4930</v>
+        <v>5652.5</v>
       </c>
       <c r="G29" s="14"/>
     </row>
@@ -1591,7 +1600,7 @@
       </c>
       <c r="F31" s="59">
         <f>F29*F30</f>
-        <v>1331.1000000000001</v>
+        <v>1526.1750000000002</v>
       </c>
       <c r="G31" s="14"/>
     </row>
@@ -1610,7 +1619,7 @@
     </row>
     <row r="33" spans="1:7" ht="33.75" customHeight="1" x14ac:dyDescent="0.65">
       <c r="A33" s="4"/>
-      <c r="B33" s="86"/>
+      <c r="B33" s="67"/>
       <c r="C33" s="68"/>
       <c r="D33" s="57"/>
       <c r="E33" s="62" t="s">
@@ -1618,13 +1627,13 @@
       </c>
       <c r="F33" s="63">
         <f>F29+F31+F32</f>
-        <v>6261.1</v>
+        <v>7178.6750000000002</v>
       </c>
       <c r="G33" s="17"/>
     </row>
     <row r="34" spans="1:7" ht="9.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A34" s="4"/>
-      <c r="B34" s="88"/>
+      <c r="B34" s="69"/>
       <c r="C34" s="68"/>
       <c r="D34" s="68"/>
       <c r="E34" s="68"/>
@@ -1644,31 +1653,31 @@
     </row>
     <row r="36" spans="1:7" ht="36.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A36" s="4"/>
-      <c r="B36" s="84" t="s">
+      <c r="B36" s="70" t="s">
         <v>28</v>
       </c>
-      <c r="C36" s="85"/>
-      <c r="D36" s="85"/>
-      <c r="E36" s="85"/>
-      <c r="F36" s="85"/>
+      <c r="C36" s="71"/>
+      <c r="D36" s="71"/>
+      <c r="E36" s="71"/>
+      <c r="F36" s="71"/>
       <c r="G36" s="19"/>
     </row>
     <row r="37" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A37" s="4"/>
-      <c r="B37" s="82"/>
-      <c r="C37" s="83"/>
-      <c r="D37" s="83"/>
-      <c r="E37" s="83"/>
-      <c r="F37" s="83"/>
+      <c r="B37" s="72"/>
+      <c r="C37" s="73"/>
+      <c r="D37" s="73"/>
+      <c r="E37" s="73"/>
+      <c r="F37" s="73"/>
       <c r="G37" s="20"/>
     </row>
     <row r="38" spans="1:7" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="21"/>
-      <c r="B38" s="87"/>
-      <c r="C38" s="83"/>
-      <c r="D38" s="83"/>
-      <c r="E38" s="83"/>
-      <c r="F38" s="83"/>
+      <c r="B38" s="74"/>
+      <c r="C38" s="73"/>
+      <c r="D38" s="73"/>
+      <c r="E38" s="73"/>
+      <c r="F38" s="73"/>
       <c r="G38" s="24"/>
     </row>
     <row r="39" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -1682,16 +1691,12 @@
     </row>
   </sheetData>
   <mergeCells count="23">
-    <mergeCell ref="B33:C33"/>
-    <mergeCell ref="B34:F34"/>
-    <mergeCell ref="B36:F36"/>
-    <mergeCell ref="B37:F37"/>
-    <mergeCell ref="B38:F38"/>
-    <mergeCell ref="B22:C22"/>
-    <mergeCell ref="B23:C23"/>
-    <mergeCell ref="B24:C24"/>
-    <mergeCell ref="B25:C25"/>
-    <mergeCell ref="B26:C26"/>
+    <mergeCell ref="B15:C15"/>
+    <mergeCell ref="B2:C2"/>
+    <mergeCell ref="E2:F2"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="B4:C4"/>
+    <mergeCell ref="B5:C5"/>
     <mergeCell ref="B28:C32"/>
     <mergeCell ref="B16:C16"/>
     <mergeCell ref="B17:C17"/>
@@ -1699,12 +1704,16 @@
     <mergeCell ref="B19:C19"/>
     <mergeCell ref="B20:C20"/>
     <mergeCell ref="B21:C21"/>
-    <mergeCell ref="B2:C2"/>
-    <mergeCell ref="E2:F2"/>
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="B4:C4"/>
-    <mergeCell ref="B5:C5"/>
-    <mergeCell ref="B15:C15"/>
+    <mergeCell ref="B22:C22"/>
+    <mergeCell ref="B23:C23"/>
+    <mergeCell ref="B24:C24"/>
+    <mergeCell ref="B25:C25"/>
+    <mergeCell ref="B26:C26"/>
+    <mergeCell ref="B33:C33"/>
+    <mergeCell ref="B34:F34"/>
+    <mergeCell ref="B36:F36"/>
+    <mergeCell ref="B37:F37"/>
+    <mergeCell ref="B38:F38"/>
   </mergeCells>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0" right="0" top="0" bottom="0" header="0" footer="0"/>
@@ -1748,12 +1757,12 @@
     </row>
     <row r="2" spans="1:7" ht="31.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A2" s="2"/>
-      <c r="B2" s="69" t="s">
+      <c r="B2" s="81" t="s">
         <v>17</v>
       </c>
-      <c r="C2" s="70"/>
+      <c r="C2" s="82"/>
       <c r="D2" s="26"/>
-      <c r="E2" s="71" t="s">
+      <c r="E2" s="83" t="s">
         <v>0</v>
       </c>
       <c r="F2" s="68"/>
@@ -1761,7 +1770,7 @@
     </row>
     <row r="3" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A3" s="4"/>
-      <c r="B3" s="67" t="s">
+      <c r="B3" s="84" t="s">
         <v>19</v>
       </c>
       <c r="C3" s="68"/>
@@ -1772,7 +1781,7 @@
     </row>
     <row r="4" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A4" s="4"/>
-      <c r="B4" s="72" t="s">
+      <c r="B4" s="85" t="s">
         <v>21</v>
       </c>
       <c r="C4" s="68"/>
@@ -1783,7 +1792,7 @@
     </row>
     <row r="5" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A5" s="4"/>
-      <c r="B5" s="73"/>
+      <c r="B5" s="86"/>
       <c r="C5" s="68"/>
       <c r="D5" s="27"/>
       <c r="E5" s="28"/>
@@ -1891,10 +1900,10 @@
     </row>
     <row r="15" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A15" s="4"/>
-      <c r="B15" s="76" t="s">
+      <c r="B15" s="87" t="s">
         <v>4</v>
       </c>
-      <c r="C15" s="77"/>
+      <c r="C15" s="88"/>
       <c r="D15" s="46" t="s">
         <v>5</v>
       </c>
@@ -1908,10 +1917,10 @@
     </row>
     <row r="16" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A16" s="4"/>
-      <c r="B16" s="74" t="s">
+      <c r="B16" s="79" t="s">
         <v>24</v>
       </c>
-      <c r="C16" s="75"/>
+      <c r="C16" s="80"/>
       <c r="D16" s="48">
         <v>1</v>
       </c>
@@ -1926,10 +1935,10 @@
     </row>
     <row r="17" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A17" s="4"/>
-      <c r="B17" s="80" t="s">
+      <c r="B17" s="77" t="s">
         <v>25</v>
       </c>
-      <c r="C17" s="79"/>
+      <c r="C17" s="76"/>
       <c r="D17" s="50">
         <v>1</v>
       </c>
@@ -1944,10 +1953,10 @@
     </row>
     <row r="18" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A18" s="4"/>
-      <c r="B18" s="78" t="s">
+      <c r="B18" s="75" t="s">
         <v>26</v>
       </c>
-      <c r="C18" s="79"/>
+      <c r="C18" s="76"/>
       <c r="D18" s="52">
         <v>1</v>
       </c>
@@ -1962,8 +1971,8 @@
     </row>
     <row r="19" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A19" s="4"/>
-      <c r="B19" s="80"/>
-      <c r="C19" s="79"/>
+      <c r="B19" s="77"/>
+      <c r="C19" s="76"/>
       <c r="D19" s="50"/>
       <c r="E19" s="51"/>
       <c r="F19" s="51">
@@ -1974,8 +1983,8 @@
     </row>
     <row r="20" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A20" s="4"/>
-      <c r="B20" s="78"/>
-      <c r="C20" s="79"/>
+      <c r="B20" s="75"/>
+      <c r="C20" s="76"/>
       <c r="D20" s="52"/>
       <c r="E20" s="53"/>
       <c r="F20" s="53">
@@ -1986,8 +1995,8 @@
     </row>
     <row r="21" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A21" s="4"/>
-      <c r="B21" s="80"/>
-      <c r="C21" s="79"/>
+      <c r="B21" s="77"/>
+      <c r="C21" s="76"/>
       <c r="D21" s="50"/>
       <c r="E21" s="51"/>
       <c r="F21" s="51">
@@ -1998,8 +2007,8 @@
     </row>
     <row r="22" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A22" s="4"/>
-      <c r="B22" s="78"/>
-      <c r="C22" s="79"/>
+      <c r="B22" s="75"/>
+      <c r="C22" s="76"/>
       <c r="D22" s="52"/>
       <c r="E22" s="53"/>
       <c r="F22" s="53">
@@ -2010,8 +2019,8 @@
     </row>
     <row r="23" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A23" s="4"/>
-      <c r="B23" s="80"/>
-      <c r="C23" s="79"/>
+      <c r="B23" s="77"/>
+      <c r="C23" s="76"/>
       <c r="D23" s="50"/>
       <c r="E23" s="51"/>
       <c r="F23" s="51">
@@ -2022,8 +2031,8 @@
     </row>
     <row r="24" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A24" s="4"/>
-      <c r="B24" s="78"/>
-      <c r="C24" s="79"/>
+      <c r="B24" s="75"/>
+      <c r="C24" s="76"/>
       <c r="D24" s="52"/>
       <c r="E24" s="53"/>
       <c r="F24" s="53">
@@ -2034,8 +2043,8 @@
     </row>
     <row r="25" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A25" s="4"/>
-      <c r="B25" s="80"/>
-      <c r="C25" s="79"/>
+      <c r="B25" s="77"/>
+      <c r="C25" s="76"/>
       <c r="D25" s="50"/>
       <c r="E25" s="51"/>
       <c r="F25" s="51">
@@ -2046,8 +2055,8 @@
     </row>
     <row r="26" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A26" s="4"/>
-      <c r="B26" s="78"/>
-      <c r="C26" s="79"/>
+      <c r="B26" s="75"/>
+      <c r="C26" s="76"/>
       <c r="D26" s="52"/>
       <c r="E26" s="53"/>
       <c r="F26" s="54">
@@ -2072,7 +2081,7 @@
     </row>
     <row r="28" spans="1:7" ht="19.5" customHeight="1" x14ac:dyDescent="0.65">
       <c r="A28" s="4"/>
-      <c r="B28" s="81" t="s">
+      <c r="B28" s="78" t="s">
         <v>9</v>
       </c>
       <c r="C28" s="68"/>
@@ -2142,7 +2151,7 @@
     </row>
     <row r="33" spans="1:7" ht="33.75" customHeight="1" x14ac:dyDescent="0.65">
       <c r="A33" s="4"/>
-      <c r="B33" s="86"/>
+      <c r="B33" s="67"/>
       <c r="C33" s="68"/>
       <c r="D33" s="57"/>
       <c r="E33" s="62" t="s">
@@ -2156,7 +2165,7 @@
     </row>
     <row r="34" spans="1:7" ht="9.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A34" s="4"/>
-      <c r="B34" s="88"/>
+      <c r="B34" s="69"/>
       <c r="C34" s="68"/>
       <c r="D34" s="68"/>
       <c r="E34" s="68"/>
@@ -2176,31 +2185,31 @@
     </row>
     <row r="36" spans="1:7" ht="36.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A36" s="4"/>
-      <c r="B36" s="84" t="s">
+      <c r="B36" s="70" t="s">
         <v>28</v>
       </c>
-      <c r="C36" s="85"/>
-      <c r="D36" s="85"/>
-      <c r="E36" s="85"/>
-      <c r="F36" s="85"/>
+      <c r="C36" s="71"/>
+      <c r="D36" s="71"/>
+      <c r="E36" s="71"/>
+      <c r="F36" s="71"/>
       <c r="G36" s="19"/>
     </row>
     <row r="37" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A37" s="4"/>
-      <c r="B37" s="82"/>
-      <c r="C37" s="83"/>
-      <c r="D37" s="83"/>
-      <c r="E37" s="83"/>
-      <c r="F37" s="83"/>
+      <c r="B37" s="72"/>
+      <c r="C37" s="73"/>
+      <c r="D37" s="73"/>
+      <c r="E37" s="73"/>
+      <c r="F37" s="73"/>
       <c r="G37" s="20"/>
     </row>
     <row r="38" spans="1:7" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="21"/>
-      <c r="B38" s="87"/>
-      <c r="C38" s="83"/>
-      <c r="D38" s="83"/>
-      <c r="E38" s="83"/>
-      <c r="F38" s="83"/>
+      <c r="B38" s="74"/>
+      <c r="C38" s="73"/>
+      <c r="D38" s="73"/>
+      <c r="E38" s="73"/>
+      <c r="F38" s="73"/>
       <c r="G38" s="22"/>
     </row>
     <row r="39" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -2214,16 +2223,11 @@
     </row>
   </sheetData>
   <mergeCells count="23">
-    <mergeCell ref="B37:F37"/>
-    <mergeCell ref="B36:F36"/>
-    <mergeCell ref="B33:C33"/>
-    <mergeCell ref="B38:F38"/>
-    <mergeCell ref="B34:F34"/>
-    <mergeCell ref="B25:C25"/>
-    <mergeCell ref="B24:C24"/>
-    <mergeCell ref="B23:C23"/>
-    <mergeCell ref="B28:C32"/>
-    <mergeCell ref="B26:C26"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="B2:C2"/>
+    <mergeCell ref="E2:F2"/>
+    <mergeCell ref="B4:C4"/>
+    <mergeCell ref="B5:C5"/>
     <mergeCell ref="B16:C16"/>
     <mergeCell ref="B15:C15"/>
     <mergeCell ref="B22:C22"/>
@@ -2232,11 +2236,16 @@
     <mergeCell ref="B21:C21"/>
     <mergeCell ref="B19:C19"/>
     <mergeCell ref="B20:C20"/>
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="B2:C2"/>
-    <mergeCell ref="E2:F2"/>
-    <mergeCell ref="B4:C4"/>
-    <mergeCell ref="B5:C5"/>
+    <mergeCell ref="B25:C25"/>
+    <mergeCell ref="B24:C24"/>
+    <mergeCell ref="B23:C23"/>
+    <mergeCell ref="B28:C32"/>
+    <mergeCell ref="B26:C26"/>
+    <mergeCell ref="B37:F37"/>
+    <mergeCell ref="B36:F36"/>
+    <mergeCell ref="B33:C33"/>
+    <mergeCell ref="B38:F38"/>
+    <mergeCell ref="B34:F34"/>
   </mergeCells>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0" right="0" top="0" bottom="0" header="0" footer="0"/>

--- a/presentation/Devis_1.xlsx
+++ b/presentation/Devis_1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://yncrea-my.sharepoint.com/personal/hugo_demenez_isen_yncrea_fr/Documents/Projet/Projet_2021_Informatique/presentation/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="24" documentId="8_{83E689D9-391C-4A2A-8C25-9751A7AD3F1D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{D886980C-34B9-422A-BE16-49ED9155290C}"/>
+  <xr:revisionPtr revIDLastSave="28" documentId="8_{83E689D9-391C-4A2A-8C25-9751A7AD3F1D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{B72B5549-9813-44E0-9C3D-0ADA7285A377}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15225" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="31">
   <si>
     <t>DEVIS</t>
   </si>
@@ -138,7 +138,7 @@
     <numFmt numFmtId="166" formatCode="#,##0.00[$€]"/>
     <numFmt numFmtId="167" formatCode="_-&quot;$&quot;* #,##0.00_-;\-&quot;$&quot;* #,##0.00_-;_-&quot;$&quot;* &quot;-&quot;??_-;_-@"/>
   </numFmts>
-  <fonts count="36" x14ac:knownFonts="1">
+  <fonts count="45" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -324,6 +324,56 @@
     </font>
     <font>
       <sz val="10"/>
+      <color rgb="FF137478"/>
+      <name val="Poppins"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="22"/>
+      <color rgb="FF137478"/>
+      <name val="Poppins"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="21"/>
+      <color rgb="FF137478"/>
+      <name val="Poppins"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF137478"/>
+      <name val="Poppins"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF137478"/>
+      <name val="Poppins"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color rgb="FF137478"/>
+      <name val="Poppins"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color rgb="FF137478"/>
+      <name val="Poppins"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color rgb="FF137478"/>
+      <name val="Poppins"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="8"/>
+      <color rgb="FF137478"/>
+      <name val="Poppins"/>
+    </font>
+    <font>
+      <sz val="18"/>
       <color rgb="FF137478"/>
       <name val="Poppins"/>
     </font>
@@ -538,7 +588,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="89">
+  <cellXfs count="145">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -724,10 +774,45 @@
     <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="26" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="31" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -744,40 +829,163 @@
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="36" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="39" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="26" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="38" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="40" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="35" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="35" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="40" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="40" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="40" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="40" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="41" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="40" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="41" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="41" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="40" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="40" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="40" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="41" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="41" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="41" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="41" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="41" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="41" fillId="2" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="41" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="41" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="41" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="41" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="41" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="42" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="43" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="41" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="10" fontId="41" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="44" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="42" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="42" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="39" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="40" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="39" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="41" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1184,10 +1392,10 @@
     <outlinePr summaryBelow="0" summaryRight="0"/>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:G39"/>
+  <dimension ref="A1:G38"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="E20" sqref="E20"/>
+      <selection activeCell="B33" sqref="B33:F33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="17.28515625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -1213,177 +1421,177 @@
     </row>
     <row r="2" spans="1:7" ht="31.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A2" s="2"/>
-      <c r="B2" s="81" t="s">
+      <c r="B2" s="70" t="s">
         <v>17</v>
       </c>
-      <c r="C2" s="82"/>
-      <c r="D2" s="26"/>
-      <c r="E2" s="83" t="s">
+      <c r="C2" s="71"/>
+      <c r="D2" s="90"/>
+      <c r="E2" s="91" t="s">
         <v>0</v>
       </c>
-      <c r="F2" s="68"/>
+      <c r="F2" s="71"/>
       <c r="G2" s="3"/>
     </row>
     <row r="3" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A3" s="4"/>
-      <c r="B3" s="84" t="s">
+      <c r="B3" s="92" t="s">
         <v>19</v>
       </c>
-      <c r="C3" s="68"/>
-      <c r="D3" s="27"/>
-      <c r="E3" s="28"/>
-      <c r="F3" s="29"/>
+      <c r="C3" s="71"/>
+      <c r="D3" s="93"/>
+      <c r="E3" s="94"/>
+      <c r="F3" s="95"/>
       <c r="G3" s="5"/>
     </row>
     <row r="4" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A4" s="4"/>
-      <c r="B4" s="85" t="s">
+      <c r="B4" s="96" t="s">
         <v>21</v>
       </c>
-      <c r="C4" s="68"/>
-      <c r="D4" s="27"/>
-      <c r="E4" s="28"/>
-      <c r="F4" s="29"/>
+      <c r="C4" s="71"/>
+      <c r="D4" s="93"/>
+      <c r="E4" s="94"/>
+      <c r="F4" s="95"/>
       <c r="G4" s="5"/>
     </row>
     <row r="5" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A5" s="4"/>
-      <c r="B5" s="86"/>
-      <c r="C5" s="68"/>
-      <c r="D5" s="27"/>
-      <c r="E5" s="28"/>
-      <c r="F5" s="29"/>
+      <c r="B5" s="97"/>
+      <c r="C5" s="71"/>
+      <c r="D5" s="93"/>
+      <c r="E5" s="94"/>
+      <c r="F5" s="95"/>
       <c r="G5" s="5"/>
     </row>
     <row r="6" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A6" s="4"/>
-      <c r="B6" s="30"/>
-      <c r="C6" s="27"/>
-      <c r="D6" s="31"/>
-      <c r="E6" s="27"/>
-      <c r="F6" s="32"/>
+      <c r="B6" s="67"/>
+      <c r="C6" s="93"/>
+      <c r="D6" s="98"/>
+      <c r="E6" s="93"/>
+      <c r="F6" s="99"/>
       <c r="G6" s="7"/>
     </row>
     <row r="7" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="4"/>
-      <c r="B7" s="33"/>
-      <c r="C7" s="27"/>
-      <c r="D7" s="34"/>
-      <c r="E7" s="27"/>
-      <c r="F7" s="35"/>
+      <c r="B7" s="100"/>
+      <c r="C7" s="93"/>
+      <c r="D7" s="101"/>
+      <c r="E7" s="93"/>
+      <c r="F7" s="102"/>
       <c r="G7" s="8"/>
     </row>
     <row r="8" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="4"/>
-      <c r="B8" s="33"/>
-      <c r="C8" s="27"/>
-      <c r="D8" s="31"/>
-      <c r="E8" s="27"/>
-      <c r="F8" s="36"/>
+      <c r="B8" s="100"/>
+      <c r="C8" s="93"/>
+      <c r="D8" s="98"/>
+      <c r="E8" s="93"/>
+      <c r="F8" s="103"/>
       <c r="G8" s="7"/>
     </row>
     <row r="9" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="4"/>
-      <c r="B9" s="37" t="s">
+      <c r="B9" s="104" t="s">
         <v>23</v>
       </c>
-      <c r="C9" s="27"/>
-      <c r="D9" s="66"/>
-      <c r="E9" s="38" t="s">
+      <c r="C9" s="93"/>
+      <c r="D9" s="105"/>
+      <c r="E9" s="106" t="s">
         <v>1</v>
       </c>
-      <c r="F9" s="39" t="s">
+      <c r="F9" s="107" t="s">
         <v>2</v>
       </c>
       <c r="G9" s="9"/>
     </row>
     <row r="10" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="4"/>
-      <c r="B10" s="40" t="s">
+      <c r="B10" s="108" t="s">
         <v>27</v>
       </c>
-      <c r="C10" s="27"/>
-      <c r="D10" s="40"/>
-      <c r="E10" s="38" t="s">
+      <c r="C10" s="93"/>
+      <c r="D10" s="108"/>
+      <c r="E10" s="106" t="s">
         <v>3</v>
       </c>
-      <c r="F10" s="39" t="s">
+      <c r="F10" s="107" t="s">
         <v>22</v>
       </c>
       <c r="G10" s="6"/>
     </row>
     <row r="11" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="4"/>
-      <c r="B11" s="40" t="s">
+      <c r="B11" s="108" t="s">
         <v>18</v>
       </c>
-      <c r="C11" s="27"/>
-      <c r="D11" s="40"/>
-      <c r="E11" s="41"/>
-      <c r="F11" s="42"/>
+      <c r="C11" s="93"/>
+      <c r="D11" s="108"/>
+      <c r="E11" s="109"/>
+      <c r="F11" s="110"/>
       <c r="G11" s="10"/>
     </row>
     <row r="12" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="4"/>
-      <c r="B12" s="40" t="s">
+      <c r="B12" s="108" t="s">
         <v>19</v>
       </c>
-      <c r="C12" s="27"/>
-      <c r="D12" s="40"/>
-      <c r="E12" s="43"/>
-      <c r="F12" s="44"/>
+      <c r="C12" s="93"/>
+      <c r="D12" s="108"/>
+      <c r="E12" s="111"/>
+      <c r="F12" s="112"/>
       <c r="G12" s="11"/>
     </row>
     <row r="13" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="4"/>
-      <c r="B13" s="40" t="s">
+      <c r="B13" s="108" t="s">
         <v>20</v>
       </c>
-      <c r="C13" s="45"/>
-      <c r="D13" s="40"/>
-      <c r="E13" s="43"/>
-      <c r="F13" s="40"/>
+      <c r="C13" s="113"/>
+      <c r="D13" s="108"/>
+      <c r="E13" s="111"/>
+      <c r="F13" s="108"/>
       <c r="G13" s="12"/>
     </row>
     <row r="14" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A14" s="4"/>
-      <c r="B14" s="40"/>
-      <c r="C14" s="45"/>
-      <c r="D14" s="30"/>
-      <c r="E14" s="40"/>
-      <c r="F14" s="40"/>
+      <c r="B14" s="108"/>
+      <c r="C14" s="113"/>
+      <c r="D14" s="67"/>
+      <c r="E14" s="108"/>
+      <c r="F14" s="108"/>
       <c r="G14" s="12"/>
     </row>
     <row r="15" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A15" s="4"/>
-      <c r="B15" s="87" t="s">
+      <c r="B15" s="114" t="s">
         <v>4</v>
       </c>
-      <c r="C15" s="88"/>
-      <c r="D15" s="46" t="s">
+      <c r="C15" s="115"/>
+      <c r="D15" s="116" t="s">
         <v>5</v>
       </c>
-      <c r="E15" s="46" t="s">
+      <c r="E15" s="116" t="s">
         <v>6</v>
       </c>
-      <c r="F15" s="47" t="s">
+      <c r="F15" s="117" t="s">
         <v>7</v>
       </c>
       <c r="G15" s="7"/>
     </row>
     <row r="16" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A16" s="4"/>
-      <c r="B16" s="79" t="s">
+      <c r="B16" s="118" t="s">
         <v>24</v>
       </c>
-      <c r="C16" s="80"/>
-      <c r="D16" s="48">
+      <c r="C16" s="119"/>
+      <c r="D16" s="120">
         <v>1</v>
       </c>
-      <c r="E16" s="49">
+      <c r="E16" s="121">
         <v>2000</v>
       </c>
-      <c r="F16" s="49">
+      <c r="F16" s="121">
         <f t="shared" ref="F16:F26" si="0">D16*E16</f>
         <v>2000</v>
       </c>
@@ -1391,17 +1599,17 @@
     </row>
     <row r="17" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A17" s="4"/>
-      <c r="B17" s="77" t="s">
+      <c r="B17" s="122" t="s">
         <v>25</v>
       </c>
-      <c r="C17" s="76"/>
-      <c r="D17" s="50">
+      <c r="C17" s="123"/>
+      <c r="D17" s="124">
         <v>1</v>
       </c>
-      <c r="E17" s="51">
+      <c r="E17" s="125">
         <v>1000</v>
       </c>
-      <c r="F17" s="51">
+      <c r="F17" s="125">
         <f t="shared" si="0"/>
         <v>1000</v>
       </c>
@@ -1409,17 +1617,17 @@
     </row>
     <row r="18" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A18" s="4"/>
-      <c r="B18" s="75" t="s">
+      <c r="B18" s="126" t="s">
         <v>26</v>
       </c>
-      <c r="C18" s="76"/>
-      <c r="D18" s="52">
+      <c r="C18" s="123"/>
+      <c r="D18" s="127">
         <v>1</v>
       </c>
-      <c r="E18" s="53">
+      <c r="E18" s="128">
         <v>2500</v>
       </c>
-      <c r="F18" s="53">
+      <c r="F18" s="128">
         <f t="shared" si="0"/>
         <v>2500</v>
       </c>
@@ -1427,17 +1635,17 @@
     </row>
     <row r="19" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A19" s="4"/>
-      <c r="B19" s="77" t="s">
+      <c r="B19" s="122" t="s">
         <v>29</v>
       </c>
-      <c r="C19" s="76"/>
-      <c r="D19" s="50">
+      <c r="C19" s="123"/>
+      <c r="D19" s="124">
         <v>1</v>
       </c>
-      <c r="E19" s="51">
+      <c r="E19" s="125">
         <v>300</v>
       </c>
-      <c r="F19" s="51">
+      <c r="F19" s="125">
         <f t="shared" si="0"/>
         <v>300</v>
       </c>
@@ -1445,17 +1653,17 @@
     </row>
     <row r="20" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A20" s="4"/>
-      <c r="B20" s="75" t="s">
+      <c r="B20" s="126" t="s">
         <v>30</v>
       </c>
-      <c r="C20" s="76"/>
-      <c r="D20" s="52">
+      <c r="C20" s="123"/>
+      <c r="D20" s="127">
         <v>1</v>
       </c>
-      <c r="E20" s="53">
+      <c r="E20" s="128">
         <v>850</v>
       </c>
-      <c r="F20" s="53">
+      <c r="F20" s="128">
         <f t="shared" si="0"/>
         <v>850</v>
       </c>
@@ -1463,11 +1671,11 @@
     </row>
     <row r="21" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A21" s="4"/>
-      <c r="B21" s="77"/>
-      <c r="C21" s="76"/>
-      <c r="D21" s="50"/>
-      <c r="E21" s="51"/>
-      <c r="F21" s="51">
+      <c r="B21" s="122"/>
+      <c r="C21" s="123"/>
+      <c r="D21" s="124"/>
+      <c r="E21" s="125"/>
+      <c r="F21" s="125">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -1475,11 +1683,11 @@
     </row>
     <row r="22" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A22" s="4"/>
-      <c r="B22" s="75"/>
-      <c r="C22" s="76"/>
-      <c r="D22" s="52"/>
-      <c r="E22" s="53"/>
-      <c r="F22" s="53">
+      <c r="B22" s="126"/>
+      <c r="C22" s="123"/>
+      <c r="D22" s="127"/>
+      <c r="E22" s="128"/>
+      <c r="F22" s="128">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -1487,11 +1695,11 @@
     </row>
     <row r="23" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A23" s="4"/>
-      <c r="B23" s="77"/>
-      <c r="C23" s="76"/>
-      <c r="D23" s="50"/>
-      <c r="E23" s="51"/>
-      <c r="F23" s="51">
+      <c r="B23" s="122"/>
+      <c r="C23" s="123"/>
+      <c r="D23" s="124"/>
+      <c r="E23" s="125"/>
+      <c r="F23" s="125">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -1499,11 +1707,11 @@
     </row>
     <row r="24" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A24" s="4"/>
-      <c r="B24" s="75"/>
-      <c r="C24" s="76"/>
-      <c r="D24" s="52"/>
-      <c r="E24" s="53"/>
-      <c r="F24" s="53">
+      <c r="B24" s="126"/>
+      <c r="C24" s="123"/>
+      <c r="D24" s="127"/>
+      <c r="E24" s="128"/>
+      <c r="F24" s="128">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -1511,11 +1719,11 @@
     </row>
     <row r="25" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A25" s="4"/>
-      <c r="B25" s="77"/>
-      <c r="C25" s="76"/>
-      <c r="D25" s="50"/>
-      <c r="E25" s="51"/>
-      <c r="F25" s="51">
+      <c r="B25" s="122"/>
+      <c r="C25" s="123"/>
+      <c r="D25" s="124"/>
+      <c r="E25" s="125"/>
+      <c r="F25" s="125">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -1523,11 +1731,11 @@
     </row>
     <row r="26" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A26" s="4"/>
-      <c r="B26" s="75"/>
-      <c r="C26" s="76"/>
-      <c r="D26" s="52"/>
-      <c r="E26" s="53"/>
-      <c r="F26" s="54">
+      <c r="B26" s="126"/>
+      <c r="C26" s="123"/>
+      <c r="D26" s="127"/>
+      <c r="E26" s="128"/>
+      <c r="F26" s="129">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -1535,13 +1743,13 @@
     </row>
     <row r="27" spans="1:7" ht="19.5" customHeight="1" x14ac:dyDescent="0.65">
       <c r="A27" s="4"/>
-      <c r="B27" s="55"/>
-      <c r="C27" s="56"/>
-      <c r="D27" s="57"/>
-      <c r="E27" s="58" t="s">
+      <c r="B27" s="130"/>
+      <c r="C27" s="131"/>
+      <c r="D27" s="132"/>
+      <c r="E27" s="133" t="s">
         <v>8</v>
       </c>
-      <c r="F27" s="59">
+      <c r="F27" s="134">
         <f>SUM(F16:F26)</f>
         <v>6650</v>
       </c>
@@ -1549,15 +1757,15 @@
     </row>
     <row r="28" spans="1:7" ht="19.5" customHeight="1" x14ac:dyDescent="0.65">
       <c r="A28" s="4"/>
-      <c r="B28" s="78" t="s">
+      <c r="B28" s="135" t="s">
         <v>9</v>
       </c>
-      <c r="C28" s="68"/>
-      <c r="D28" s="57"/>
-      <c r="E28" s="58" t="s">
+      <c r="C28" s="71"/>
+      <c r="D28" s="132"/>
+      <c r="E28" s="133" t="s">
         <v>10</v>
       </c>
-      <c r="F28" s="59">
+      <c r="F28" s="134">
         <f>0.15*F27</f>
         <v>997.5</v>
       </c>
@@ -1565,13 +1773,13 @@
     </row>
     <row r="29" spans="1:7" ht="19.5" customHeight="1" x14ac:dyDescent="0.65">
       <c r="A29" s="4"/>
-      <c r="B29" s="68"/>
-      <c r="C29" s="68"/>
-      <c r="D29" s="57"/>
-      <c r="E29" s="58" t="s">
+      <c r="B29" s="71"/>
+      <c r="C29" s="71"/>
+      <c r="D29" s="132"/>
+      <c r="E29" s="133" t="s">
         <v>11</v>
       </c>
-      <c r="F29" s="59">
+      <c r="F29" s="134">
         <f>F27-F28</f>
         <v>5652.5</v>
       </c>
@@ -1579,125 +1787,111 @@
     </row>
     <row r="30" spans="1:7" ht="19.5" customHeight="1" x14ac:dyDescent="0.65">
       <c r="A30" s="4"/>
-      <c r="B30" s="68"/>
-      <c r="C30" s="68"/>
-      <c r="D30" s="57"/>
-      <c r="E30" s="58" t="s">
+      <c r="B30" s="71"/>
+      <c r="C30" s="71"/>
+      <c r="D30" s="132"/>
+      <c r="E30" s="133" t="s">
         <v>12</v>
       </c>
-      <c r="F30" s="60">
+      <c r="F30" s="136">
         <v>0.27</v>
       </c>
       <c r="G30" s="15"/>
     </row>
     <row r="31" spans="1:7" ht="19.5" customHeight="1" x14ac:dyDescent="0.65">
       <c r="A31" s="4"/>
-      <c r="B31" s="68"/>
-      <c r="C31" s="68"/>
-      <c r="D31" s="57"/>
-      <c r="E31" s="58" t="s">
+      <c r="B31" s="71"/>
+      <c r="C31" s="71"/>
+      <c r="D31" s="132"/>
+      <c r="E31" s="133" t="s">
         <v>13</v>
       </c>
-      <c r="F31" s="59">
+      <c r="F31" s="134">
         <f>F29*F30</f>
         <v>1526.1750000000002</v>
       </c>
       <c r="G31" s="14"/>
     </row>
-    <row r="32" spans="1:7" ht="19.5" customHeight="1" x14ac:dyDescent="0.65">
+    <row r="32" spans="1:7" ht="33.75" customHeight="1" x14ac:dyDescent="0.65">
       <c r="A32" s="4"/>
-      <c r="B32" s="68"/>
-      <c r="C32" s="68"/>
-      <c r="D32" s="57"/>
-      <c r="E32" s="58" t="s">
-        <v>14</v>
-      </c>
-      <c r="F32" s="61">
-        <v>0</v>
-      </c>
-      <c r="G32" s="16"/>
-    </row>
-    <row r="33" spans="1:7" ht="33.75" customHeight="1" x14ac:dyDescent="0.65">
+      <c r="B32" s="137"/>
+      <c r="C32" s="71"/>
+      <c r="D32" s="132"/>
+      <c r="E32" s="138" t="s">
+        <v>15</v>
+      </c>
+      <c r="F32" s="139">
+        <f>F29+F31</f>
+        <v>7178.6750000000002</v>
+      </c>
+      <c r="G32" s="17"/>
+    </row>
+    <row r="33" spans="1:7" ht="9.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A33" s="4"/>
-      <c r="B33" s="67"/>
-      <c r="C33" s="68"/>
-      <c r="D33" s="57"/>
-      <c r="E33" s="62" t="s">
-        <v>15</v>
-      </c>
-      <c r="F33" s="63">
-        <f>F29+F31+F32</f>
-        <v>7178.6750000000002</v>
-      </c>
-      <c r="G33" s="17"/>
-    </row>
-    <row r="34" spans="1:7" ht="9.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="B33" s="140"/>
+      <c r="C33" s="71"/>
+      <c r="D33" s="71"/>
+      <c r="E33" s="71"/>
+      <c r="F33" s="71"/>
+      <c r="G33" s="18"/>
+    </row>
+    <row r="34" spans="1:7" ht="9.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A34" s="4"/>
-      <c r="B34" s="69"/>
-      <c r="C34" s="68"/>
-      <c r="D34" s="68"/>
-      <c r="E34" s="68"/>
-      <c r="F34" s="68"/>
+      <c r="B34" s="141" t="s">
+        <v>16</v>
+      </c>
+      <c r="C34" s="142"/>
+      <c r="D34" s="142"/>
+      <c r="E34" s="142"/>
+      <c r="F34" s="142"/>
       <c r="G34" s="18"/>
     </row>
-    <row r="35" spans="1:7" ht="9.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:7" ht="36.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A35" s="4"/>
-      <c r="B35" s="64" t="s">
-        <v>16</v>
-      </c>
-      <c r="C35" s="65"/>
-      <c r="D35" s="65"/>
-      <c r="E35" s="65"/>
-      <c r="F35" s="65"/>
-      <c r="G35" s="18"/>
-    </row>
-    <row r="36" spans="1:7" ht="36.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B35" s="143" t="s">
+        <v>28</v>
+      </c>
+      <c r="C35" s="144"/>
+      <c r="D35" s="144"/>
+      <c r="E35" s="144"/>
+      <c r="F35" s="144"/>
+      <c r="G35" s="19"/>
+    </row>
+    <row r="36" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A36" s="4"/>
-      <c r="B36" s="70" t="s">
-        <v>28</v>
-      </c>
-      <c r="C36" s="71"/>
-      <c r="D36" s="71"/>
-      <c r="E36" s="71"/>
-      <c r="F36" s="71"/>
-      <c r="G36" s="19"/>
-    </row>
-    <row r="37" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A37" s="4"/>
-      <c r="B37" s="72"/>
-      <c r="C37" s="73"/>
-      <c r="D37" s="73"/>
-      <c r="E37" s="73"/>
-      <c r="F37" s="73"/>
-      <c r="G37" s="20"/>
-    </row>
-    <row r="38" spans="1:7" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="21"/>
-      <c r="B38" s="74"/>
-      <c r="C38" s="73"/>
-      <c r="D38" s="73"/>
-      <c r="E38" s="73"/>
-      <c r="F38" s="73"/>
-      <c r="G38" s="24"/>
-    </row>
-    <row r="39" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A39" s="4"/>
-      <c r="B39" s="4"/>
-      <c r="C39" s="4"/>
-      <c r="D39" s="4"/>
-      <c r="E39" s="4"/>
-      <c r="F39" s="4"/>
-      <c r="G39" s="4"/>
+      <c r="B36" s="87"/>
+      <c r="C36" s="88"/>
+      <c r="D36" s="88"/>
+      <c r="E36" s="88"/>
+      <c r="F36" s="88"/>
+      <c r="G36" s="20"/>
+    </row>
+    <row r="37" spans="1:7" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A37" s="21"/>
+      <c r="B37" s="89"/>
+      <c r="C37" s="88"/>
+      <c r="D37" s="88"/>
+      <c r="E37" s="88"/>
+      <c r="F37" s="88"/>
+      <c r="G37" s="24"/>
+    </row>
+    <row r="38" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A38" s="4"/>
+      <c r="B38" s="4"/>
+      <c r="C38" s="4"/>
+      <c r="D38" s="4"/>
+      <c r="E38" s="4"/>
+      <c r="F38" s="4"/>
+      <c r="G38" s="4"/>
     </row>
   </sheetData>
   <mergeCells count="23">
-    <mergeCell ref="B15:C15"/>
-    <mergeCell ref="B2:C2"/>
-    <mergeCell ref="E2:F2"/>
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="B4:C4"/>
-    <mergeCell ref="B5:C5"/>
-    <mergeCell ref="B28:C32"/>
+    <mergeCell ref="B32:C32"/>
+    <mergeCell ref="B33:F33"/>
+    <mergeCell ref="B35:F35"/>
+    <mergeCell ref="B36:F36"/>
+    <mergeCell ref="B37:F37"/>
+    <mergeCell ref="B28:C31"/>
     <mergeCell ref="B16:C16"/>
     <mergeCell ref="B17:C17"/>
     <mergeCell ref="B18:C18"/>
@@ -1709,11 +1903,12 @@
     <mergeCell ref="B24:C24"/>
     <mergeCell ref="B25:C25"/>
     <mergeCell ref="B26:C26"/>
-    <mergeCell ref="B33:C33"/>
-    <mergeCell ref="B34:F34"/>
-    <mergeCell ref="B36:F36"/>
-    <mergeCell ref="B37:F37"/>
-    <mergeCell ref="B38:F38"/>
+    <mergeCell ref="B15:C15"/>
+    <mergeCell ref="B2:C2"/>
+    <mergeCell ref="E2:F2"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="B4:C4"/>
+    <mergeCell ref="B5:C5"/>
   </mergeCells>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0" right="0" top="0" bottom="0" header="0" footer="0"/>
@@ -1757,23 +1952,23 @@
     </row>
     <row r="2" spans="1:7" ht="31.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A2" s="2"/>
-      <c r="B2" s="81" t="s">
+      <c r="B2" s="70" t="s">
         <v>17</v>
       </c>
-      <c r="C2" s="82"/>
+      <c r="C2" s="71"/>
       <c r="D2" s="26"/>
-      <c r="E2" s="83" t="s">
+      <c r="E2" s="72" t="s">
         <v>0</v>
       </c>
-      <c r="F2" s="68"/>
+      <c r="F2" s="73"/>
       <c r="G2" s="3"/>
     </row>
     <row r="3" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A3" s="4"/>
-      <c r="B3" s="84" t="s">
+      <c r="B3" s="74" t="s">
         <v>19</v>
       </c>
-      <c r="C3" s="68"/>
+      <c r="C3" s="73"/>
       <c r="D3" s="27"/>
       <c r="E3" s="28"/>
       <c r="F3" s="29"/>
@@ -1781,10 +1976,10 @@
     </row>
     <row r="4" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A4" s="4"/>
-      <c r="B4" s="85" t="s">
+      <c r="B4" s="75" t="s">
         <v>21</v>
       </c>
-      <c r="C4" s="68"/>
+      <c r="C4" s="73"/>
       <c r="D4" s="27"/>
       <c r="E4" s="28"/>
       <c r="F4" s="29"/>
@@ -1792,8 +1987,8 @@
     </row>
     <row r="5" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A5" s="4"/>
-      <c r="B5" s="86"/>
-      <c r="C5" s="68"/>
+      <c r="B5" s="76"/>
+      <c r="C5" s="73"/>
       <c r="D5" s="27"/>
       <c r="E5" s="28"/>
       <c r="F5" s="29"/>
@@ -1900,10 +2095,10 @@
     </row>
     <row r="15" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A15" s="4"/>
-      <c r="B15" s="87" t="s">
+      <c r="B15" s="68" t="s">
         <v>4</v>
       </c>
-      <c r="C15" s="88"/>
+      <c r="C15" s="69"/>
       <c r="D15" s="46" t="s">
         <v>5</v>
       </c>
@@ -1917,10 +2112,10 @@
     </row>
     <row r="16" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A16" s="4"/>
-      <c r="B16" s="79" t="s">
+      <c r="B16" s="78" t="s">
         <v>24</v>
       </c>
-      <c r="C16" s="80"/>
+      <c r="C16" s="79"/>
       <c r="D16" s="48">
         <v>1</v>
       </c>
@@ -1935,10 +2130,10 @@
     </row>
     <row r="17" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A17" s="4"/>
-      <c r="B17" s="77" t="s">
+      <c r="B17" s="80" t="s">
         <v>25</v>
       </c>
-      <c r="C17" s="76"/>
+      <c r="C17" s="81"/>
       <c r="D17" s="50">
         <v>1</v>
       </c>
@@ -1953,10 +2148,10 @@
     </row>
     <row r="18" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A18" s="4"/>
-      <c r="B18" s="75" t="s">
+      <c r="B18" s="82" t="s">
         <v>26</v>
       </c>
-      <c r="C18" s="76"/>
+      <c r="C18" s="81"/>
       <c r="D18" s="52">
         <v>1</v>
       </c>
@@ -1971,8 +2166,8 @@
     </row>
     <row r="19" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A19" s="4"/>
-      <c r="B19" s="77"/>
-      <c r="C19" s="76"/>
+      <c r="B19" s="80"/>
+      <c r="C19" s="81"/>
       <c r="D19" s="50"/>
       <c r="E19" s="51"/>
       <c r="F19" s="51">
@@ -1983,8 +2178,8 @@
     </row>
     <row r="20" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A20" s="4"/>
-      <c r="B20" s="75"/>
-      <c r="C20" s="76"/>
+      <c r="B20" s="82"/>
+      <c r="C20" s="81"/>
       <c r="D20" s="52"/>
       <c r="E20" s="53"/>
       <c r="F20" s="53">
@@ -1995,8 +2190,8 @@
     </row>
     <row r="21" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A21" s="4"/>
-      <c r="B21" s="77"/>
-      <c r="C21" s="76"/>
+      <c r="B21" s="80"/>
+      <c r="C21" s="81"/>
       <c r="D21" s="50"/>
       <c r="E21" s="51"/>
       <c r="F21" s="51">
@@ -2007,8 +2202,8 @@
     </row>
     <row r="22" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A22" s="4"/>
-      <c r="B22" s="75"/>
-      <c r="C22" s="76"/>
+      <c r="B22" s="82"/>
+      <c r="C22" s="81"/>
       <c r="D22" s="52"/>
       <c r="E22" s="53"/>
       <c r="F22" s="53">
@@ -2019,8 +2214,8 @@
     </row>
     <row r="23" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A23" s="4"/>
-      <c r="B23" s="77"/>
-      <c r="C23" s="76"/>
+      <c r="B23" s="80"/>
+      <c r="C23" s="81"/>
       <c r="D23" s="50"/>
       <c r="E23" s="51"/>
       <c r="F23" s="51">
@@ -2031,8 +2226,8 @@
     </row>
     <row r="24" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A24" s="4"/>
-      <c r="B24" s="75"/>
-      <c r="C24" s="76"/>
+      <c r="B24" s="82"/>
+      <c r="C24" s="81"/>
       <c r="D24" s="52"/>
       <c r="E24" s="53"/>
       <c r="F24" s="53">
@@ -2043,8 +2238,8 @@
     </row>
     <row r="25" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A25" s="4"/>
-      <c r="B25" s="77"/>
-      <c r="C25" s="76"/>
+      <c r="B25" s="80"/>
+      <c r="C25" s="81"/>
       <c r="D25" s="50"/>
       <c r="E25" s="51"/>
       <c r="F25" s="51">
@@ -2055,8 +2250,8 @@
     </row>
     <row r="26" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A26" s="4"/>
-      <c r="B26" s="75"/>
-      <c r="C26" s="76"/>
+      <c r="B26" s="82"/>
+      <c r="C26" s="81"/>
       <c r="D26" s="52"/>
       <c r="E26" s="53"/>
       <c r="F26" s="54">
@@ -2081,10 +2276,10 @@
     </row>
     <row r="28" spans="1:7" ht="19.5" customHeight="1" x14ac:dyDescent="0.65">
       <c r="A28" s="4"/>
-      <c r="B28" s="78" t="s">
+      <c r="B28" s="77" t="s">
         <v>9</v>
       </c>
-      <c r="C28" s="68"/>
+      <c r="C28" s="73"/>
       <c r="D28" s="57"/>
       <c r="E28" s="58" t="s">
         <v>10</v>
@@ -2097,8 +2292,8 @@
     </row>
     <row r="29" spans="1:7" ht="19.5" customHeight="1" x14ac:dyDescent="0.65">
       <c r="A29" s="4"/>
-      <c r="B29" s="68"/>
-      <c r="C29" s="68"/>
+      <c r="B29" s="73"/>
+      <c r="C29" s="73"/>
       <c r="D29" s="57"/>
       <c r="E29" s="58" t="s">
         <v>11</v>
@@ -2111,8 +2306,8 @@
     </row>
     <row r="30" spans="1:7" ht="19.5" customHeight="1" x14ac:dyDescent="0.65">
       <c r="A30" s="4"/>
-      <c r="B30" s="68"/>
-      <c r="C30" s="68"/>
+      <c r="B30" s="73"/>
+      <c r="C30" s="73"/>
       <c r="D30" s="57"/>
       <c r="E30" s="58" t="s">
         <v>12</v>
@@ -2124,8 +2319,8 @@
     </row>
     <row r="31" spans="1:7" ht="19.5" customHeight="1" x14ac:dyDescent="0.65">
       <c r="A31" s="4"/>
-      <c r="B31" s="68"/>
-      <c r="C31" s="68"/>
+      <c r="B31" s="73"/>
+      <c r="C31" s="73"/>
       <c r="D31" s="57"/>
       <c r="E31" s="58" t="s">
         <v>13</v>
@@ -2138,8 +2333,8 @@
     </row>
     <row r="32" spans="1:7" ht="19.5" customHeight="1" x14ac:dyDescent="0.65">
       <c r="A32" s="4"/>
-      <c r="B32" s="68"/>
-      <c r="C32" s="68"/>
+      <c r="B32" s="73"/>
+      <c r="C32" s="73"/>
       <c r="D32" s="57"/>
       <c r="E32" s="58" t="s">
         <v>14</v>
@@ -2151,8 +2346,8 @@
     </row>
     <row r="33" spans="1:7" ht="33.75" customHeight="1" x14ac:dyDescent="0.65">
       <c r="A33" s="4"/>
-      <c r="B33" s="67"/>
-      <c r="C33" s="68"/>
+      <c r="B33" s="83"/>
+      <c r="C33" s="73"/>
       <c r="D33" s="57"/>
       <c r="E33" s="62" t="s">
         <v>15</v>
@@ -2165,11 +2360,11 @@
     </row>
     <row r="34" spans="1:7" ht="9.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A34" s="4"/>
-      <c r="B34" s="69"/>
-      <c r="C34" s="68"/>
-      <c r="D34" s="68"/>
-      <c r="E34" s="68"/>
-      <c r="F34" s="68"/>
+      <c r="B34" s="84"/>
+      <c r="C34" s="73"/>
+      <c r="D34" s="73"/>
+      <c r="E34" s="73"/>
+      <c r="F34" s="73"/>
       <c r="G34" s="18"/>
     </row>
     <row r="35" spans="1:7" ht="9.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -2185,31 +2380,31 @@
     </row>
     <row r="36" spans="1:7" ht="36.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A36" s="4"/>
-      <c r="B36" s="70" t="s">
+      <c r="B36" s="85" t="s">
         <v>28</v>
       </c>
-      <c r="C36" s="71"/>
-      <c r="D36" s="71"/>
-      <c r="E36" s="71"/>
-      <c r="F36" s="71"/>
+      <c r="C36" s="86"/>
+      <c r="D36" s="86"/>
+      <c r="E36" s="86"/>
+      <c r="F36" s="86"/>
       <c r="G36" s="19"/>
     </row>
     <row r="37" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A37" s="4"/>
-      <c r="B37" s="72"/>
-      <c r="C37" s="73"/>
-      <c r="D37" s="73"/>
-      <c r="E37" s="73"/>
-      <c r="F37" s="73"/>
+      <c r="B37" s="87"/>
+      <c r="C37" s="88"/>
+      <c r="D37" s="88"/>
+      <c r="E37" s="88"/>
+      <c r="F37" s="88"/>
       <c r="G37" s="20"/>
     </row>
     <row r="38" spans="1:7" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="21"/>
-      <c r="B38" s="74"/>
-      <c r="C38" s="73"/>
-      <c r="D38" s="73"/>
-      <c r="E38" s="73"/>
-      <c r="F38" s="73"/>
+      <c r="B38" s="89"/>
+      <c r="C38" s="88"/>
+      <c r="D38" s="88"/>
+      <c r="E38" s="88"/>
+      <c r="F38" s="88"/>
       <c r="G38" s="22"/>
     </row>
     <row r="39" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -2223,11 +2418,16 @@
     </row>
   </sheetData>
   <mergeCells count="23">
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="B2:C2"/>
-    <mergeCell ref="E2:F2"/>
-    <mergeCell ref="B4:C4"/>
-    <mergeCell ref="B5:C5"/>
+    <mergeCell ref="B37:F37"/>
+    <mergeCell ref="B36:F36"/>
+    <mergeCell ref="B33:C33"/>
+    <mergeCell ref="B38:F38"/>
+    <mergeCell ref="B34:F34"/>
+    <mergeCell ref="B25:C25"/>
+    <mergeCell ref="B24:C24"/>
+    <mergeCell ref="B23:C23"/>
+    <mergeCell ref="B28:C32"/>
+    <mergeCell ref="B26:C26"/>
     <mergeCell ref="B16:C16"/>
     <mergeCell ref="B15:C15"/>
     <mergeCell ref="B22:C22"/>
@@ -2236,16 +2436,11 @@
     <mergeCell ref="B21:C21"/>
     <mergeCell ref="B19:C19"/>
     <mergeCell ref="B20:C20"/>
-    <mergeCell ref="B25:C25"/>
-    <mergeCell ref="B24:C24"/>
-    <mergeCell ref="B23:C23"/>
-    <mergeCell ref="B28:C32"/>
-    <mergeCell ref="B26:C26"/>
-    <mergeCell ref="B37:F37"/>
-    <mergeCell ref="B36:F36"/>
-    <mergeCell ref="B33:C33"/>
-    <mergeCell ref="B38:F38"/>
-    <mergeCell ref="B34:F34"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="B2:C2"/>
+    <mergeCell ref="E2:F2"/>
+    <mergeCell ref="B4:C4"/>
+    <mergeCell ref="B5:C5"/>
   </mergeCells>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0" right="0" top="0" bottom="0" header="0" footer="0"/>

--- a/presentation/Devis_1.xlsx
+++ b/presentation/Devis_1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://yncrea-my.sharepoint.com/personal/hugo_demenez_isen_yncrea_fr/Documents/Projet/Projet_2021_Informatique/presentation/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="28" documentId="8_{83E689D9-391C-4A2A-8C25-9751A7AD3F1D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{B72B5549-9813-44E0-9C3D-0ADA7285A377}"/>
+  <xr:revisionPtr revIDLastSave="35" documentId="8_{83E689D9-391C-4A2A-8C25-9751A7AD3F1D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{66C0D391-FADC-4772-B8A1-846578DD6076}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15225" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -138,7 +138,7 @@
     <numFmt numFmtId="166" formatCode="#,##0.00[$€]"/>
     <numFmt numFmtId="167" formatCode="_-&quot;$&quot;* #,##0.00_-;\-&quot;$&quot;* #,##0.00_-;_-&quot;$&quot;* &quot;-&quot;??_-;_-@"/>
   </numFmts>
-  <fonts count="45" x14ac:knownFonts="1">
+  <fonts count="54" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -376,6 +376,55 @@
       <sz val="18"/>
       <color rgb="FF137478"/>
       <name val="Poppins"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF137478"/>
+      <name val="Roboto"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF137478"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF137478"/>
+      <name val="Roboto"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="22"/>
+      <color rgb="FF137478"/>
+      <name val="Roboto"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF137478"/>
+      <name val="Roboto"/>
+    </font>
+    <font>
+      <sz val="18"/>
+      <color rgb="FF137478"/>
+      <name val="Roboto"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color rgb="FF137478"/>
+      <name val="Roboto"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="9"/>
+      <color rgb="FF137478"/>
+      <name val="Roboto"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color rgb="FF137478"/>
+      <name val="Roboto"/>
     </font>
   </fonts>
   <fills count="3">
@@ -588,7 +637,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="145">
+  <cellXfs count="168">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -650,159 +699,308 @@
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="24" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="16" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="16" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="26" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="26" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="26" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="26" fillId="2" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="26" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="26" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="26" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="26" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="26" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="32" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="36" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="39" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="40" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="35" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="35" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="40" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="40" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="40" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="40" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="41" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="40" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="41" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="41" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="40" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="40" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="41" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="41" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="41" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="41" fillId="2" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="41" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="41" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="41" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="41" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="42" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="43" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="41" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="41" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="42" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="42" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="40" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="39" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="44" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="39" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="41" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="41" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="41" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="41" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="40" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="24" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="16" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="16" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="26" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="26" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="26" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="26" fillId="2" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="26" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="26" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="26" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="26" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="4" fontId="26" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="32" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="26" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -810,181 +1008,91 @@
     <xf numFmtId="0" fontId="26" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="45" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="38" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="46" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="47" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="48" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="49" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="50" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="51" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="49" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="49" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="45" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="52" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="45" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="49" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="53" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="53" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="53" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="51" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="47" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="52" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="53" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="46" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="47" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="49" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="36" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="37" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="39" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="35" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="40" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="35" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="35" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="40" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="40" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="40" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="40" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="41" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="40" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="41" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="41" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="40" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="40" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="40" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="41" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="41" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="41" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="41" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="41" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="41" fillId="2" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="41" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="41" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="41" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="41" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="41" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="42" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="43" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="41" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="10" fontId="41" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="44" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="42" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="42" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="39" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="40" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="39" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="41" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="49" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1010,44 +1118,59 @@
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:oneCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>571500</xdr:colOff>
-      <xdr:row>1</xdr:row>
-      <xdr:rowOff>133350</xdr:rowOff>
+      <xdr:colOff>1170215</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>176894</xdr:rowOff>
     </xdr:from>
-    <xdr:ext cx="1543050" cy="1533525"/>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>828684</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>122465</xdr:rowOff>
+    </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="image1.png" title="Image">
+        <xdr:cNvPr id="4" name="Graphique 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7905C082-CA8D-43C9-A9BF-6F0F042D7DF0}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B3155AA9-F911-40C9-98AC-06A27C96D516}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
-        <xdr:cNvPicPr preferRelativeResize="0"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+            <a:ext uri="{96DAC541-7B7A-43D3-8B79-37D633B846F1}">
+              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId2"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="5343525" y="219075"/>
-          <a:ext cx="1543050" cy="1533525"/>
+          <a:off x="5946322" y="653144"/>
+          <a:ext cx="883112" cy="680357"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
         </a:prstGeom>
-        <a:noFill/>
       </xdr:spPr>
     </xdr:pic>
-    <xdr:clientData fLocksWithSheet="0"/>
-  </xdr:oneCellAnchor>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -1395,502 +1518,503 @@
   <dimension ref="A1:G38"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="B33" sqref="B33:F33"/>
+      <selection activeCell="I9" sqref="I9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="17.28515625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="8.28515625" style="23" customWidth="1"/>
-    <col min="2" max="2" width="33.42578125" style="23" customWidth="1"/>
-    <col min="3" max="3" width="7.42578125" style="23" customWidth="1"/>
-    <col min="4" max="4" width="22.42578125" style="23" customWidth="1"/>
-    <col min="5" max="5" width="18.42578125" style="23" customWidth="1"/>
-    <col min="6" max="6" width="12.7109375" style="23" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="10.42578125" style="23" customWidth="1"/>
-    <col min="8" max="16384" width="17.28515625" style="23"/>
+    <col min="1" max="1" width="8.28515625" style="145" customWidth="1"/>
+    <col min="2" max="2" width="33.42578125" style="145" customWidth="1"/>
+    <col min="3" max="3" width="7.42578125" style="145" customWidth="1"/>
+    <col min="4" max="4" width="22.42578125" style="145" customWidth="1"/>
+    <col min="5" max="5" width="18.42578125" style="145" customWidth="1"/>
+    <col min="6" max="6" width="12.7109375" style="145" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="10.42578125" style="145" customWidth="1"/>
+    <col min="8" max="16384" width="17.28515625" style="145"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="6.75" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="A1" s="1"/>
-      <c r="B1" s="25"/>
-      <c r="C1" s="25"/>
-      <c r="D1" s="25"/>
-      <c r="E1" s="25"/>
-      <c r="F1" s="25"/>
-      <c r="G1" s="1"/>
+      <c r="A1" s="143"/>
+      <c r="B1" s="144"/>
+      <c r="C1" s="144"/>
+      <c r="D1" s="144"/>
+      <c r="E1" s="144"/>
+      <c r="F1" s="144"/>
+      <c r="G1" s="143"/>
     </row>
     <row r="2" spans="1:7" ht="31.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A2" s="2"/>
-      <c r="B2" s="70" t="s">
+      <c r="A2" s="146"/>
+      <c r="B2" s="121" t="s">
         <v>17</v>
       </c>
-      <c r="C2" s="71"/>
-      <c r="D2" s="90"/>
-      <c r="E2" s="91" t="s">
+      <c r="C2" s="106"/>
+      <c r="D2" s="66"/>
+      <c r="E2" s="122" t="s">
         <v>0</v>
       </c>
-      <c r="F2" s="71"/>
-      <c r="G2" s="3"/>
+      <c r="F2" s="106"/>
+      <c r="G2" s="147"/>
     </row>
     <row r="3" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A3" s="4"/>
-      <c r="B3" s="92" t="s">
+      <c r="A3" s="148"/>
+      <c r="B3" s="123" t="s">
         <v>19</v>
       </c>
-      <c r="C3" s="71"/>
-      <c r="D3" s="93"/>
-      <c r="E3" s="94"/>
-      <c r="F3" s="95"/>
-      <c r="G3" s="5"/>
+      <c r="C3" s="106"/>
+      <c r="D3" s="67"/>
+      <c r="E3" s="68"/>
+      <c r="F3" s="69"/>
+      <c r="G3" s="149"/>
     </row>
     <row r="4" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A4" s="4"/>
-      <c r="B4" s="96" t="s">
+      <c r="A4" s="148"/>
+      <c r="B4" s="124" t="s">
         <v>21</v>
       </c>
-      <c r="C4" s="71"/>
-      <c r="D4" s="93"/>
-      <c r="E4" s="94"/>
-      <c r="F4" s="95"/>
-      <c r="G4" s="5"/>
+      <c r="C4" s="106"/>
+      <c r="D4" s="67"/>
+      <c r="E4" s="68"/>
+      <c r="F4" s="69"/>
+      <c r="G4" s="149"/>
     </row>
     <row r="5" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A5" s="4"/>
-      <c r="B5" s="97"/>
-      <c r="C5" s="71"/>
-      <c r="D5" s="93"/>
-      <c r="E5" s="94"/>
-      <c r="F5" s="95"/>
-      <c r="G5" s="5"/>
+      <c r="A5" s="148"/>
+      <c r="B5" s="125"/>
+      <c r="C5" s="106"/>
+      <c r="D5" s="67"/>
+      <c r="E5" s="68"/>
+      <c r="F5" s="69"/>
+      <c r="G5" s="149"/>
     </row>
     <row r="6" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A6" s="4"/>
-      <c r="B6" s="67"/>
-      <c r="C6" s="93"/>
-      <c r="D6" s="98"/>
-      <c r="E6" s="93"/>
-      <c r="F6" s="99"/>
-      <c r="G6" s="7"/>
+      <c r="A6" s="148"/>
+      <c r="B6" s="65"/>
+      <c r="C6" s="67"/>
+      <c r="D6" s="70"/>
+      <c r="E6" s="67"/>
+      <c r="F6" s="71"/>
+      <c r="G6" s="150"/>
     </row>
     <row r="7" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="4"/>
-      <c r="B7" s="100"/>
-      <c r="C7" s="93"/>
-      <c r="D7" s="101"/>
-      <c r="E7" s="93"/>
-      <c r="F7" s="102"/>
-      <c r="G7" s="8"/>
+      <c r="A7" s="148"/>
+      <c r="B7" s="72"/>
+      <c r="C7" s="67"/>
+      <c r="D7" s="73"/>
+      <c r="E7" s="67"/>
+      <c r="F7" s="74"/>
+      <c r="G7" s="151"/>
     </row>
     <row r="8" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="4"/>
-      <c r="B8" s="100"/>
-      <c r="C8" s="93"/>
-      <c r="D8" s="98"/>
-      <c r="E8" s="93"/>
-      <c r="F8" s="103"/>
-      <c r="G8" s="7"/>
+      <c r="A8" s="148"/>
+      <c r="B8" s="72"/>
+      <c r="C8" s="67"/>
+      <c r="D8" s="70"/>
+      <c r="E8" s="67"/>
+      <c r="F8" s="75"/>
+      <c r="G8" s="150"/>
     </row>
     <row r="9" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="4"/>
-      <c r="B9" s="104" t="s">
+      <c r="A9" s="148"/>
+      <c r="B9" s="76" t="s">
         <v>23</v>
       </c>
-      <c r="C9" s="93"/>
-      <c r="D9" s="105"/>
-      <c r="E9" s="106" t="s">
+      <c r="C9" s="67"/>
+      <c r="D9" s="77"/>
+      <c r="E9" s="78" t="s">
         <v>1</v>
       </c>
-      <c r="F9" s="107" t="s">
+      <c r="F9" s="79" t="s">
         <v>2</v>
       </c>
-      <c r="G9" s="9"/>
+      <c r="G9" s="152"/>
     </row>
     <row r="10" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="4"/>
-      <c r="B10" s="108" t="s">
+      <c r="A10" s="148"/>
+      <c r="B10" s="80" t="s">
         <v>27</v>
       </c>
-      <c r="C10" s="93"/>
-      <c r="D10" s="108"/>
-      <c r="E10" s="106" t="s">
+      <c r="C10" s="67"/>
+      <c r="D10" s="80"/>
+      <c r="E10" s="78" t="s">
         <v>3</v>
       </c>
-      <c r="F10" s="107" t="s">
+      <c r="F10" s="79" t="s">
         <v>22</v>
       </c>
-      <c r="G10" s="6"/>
+      <c r="G10" s="153"/>
     </row>
     <row r="11" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="4"/>
-      <c r="B11" s="108" t="s">
+      <c r="A11" s="148"/>
+      <c r="B11" s="80" t="s">
         <v>18</v>
       </c>
-      <c r="C11" s="93"/>
-      <c r="D11" s="108"/>
-      <c r="E11" s="109"/>
-      <c r="F11" s="110"/>
-      <c r="G11" s="10"/>
+      <c r="C11" s="67"/>
+      <c r="D11" s="80"/>
+      <c r="E11" s="81"/>
+      <c r="F11" s="82"/>
+      <c r="G11" s="154"/>
     </row>
     <row r="12" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="4"/>
-      <c r="B12" s="108" t="s">
+      <c r="A12" s="148"/>
+      <c r="B12" s="80" t="s">
         <v>19</v>
       </c>
-      <c r="C12" s="93"/>
-      <c r="D12" s="108"/>
-      <c r="E12" s="111"/>
-      <c r="F12" s="112"/>
-      <c r="G12" s="11"/>
+      <c r="C12" s="67"/>
+      <c r="D12" s="80"/>
+      <c r="E12" s="83"/>
+      <c r="F12" s="84"/>
+      <c r="G12" s="155"/>
     </row>
     <row r="13" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="4"/>
-      <c r="B13" s="108" t="s">
+      <c r="A13" s="148"/>
+      <c r="B13" s="80" t="s">
         <v>20</v>
       </c>
-      <c r="C13" s="113"/>
-      <c r="D13" s="108"/>
-      <c r="E13" s="111"/>
-      <c r="F13" s="108"/>
-      <c r="G13" s="12"/>
+      <c r="C13" s="85"/>
+      <c r="D13" s="80"/>
+      <c r="E13" s="83"/>
+      <c r="F13" s="80"/>
+      <c r="G13" s="156"/>
     </row>
     <row r="14" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A14" s="4"/>
-      <c r="B14" s="108"/>
-      <c r="C14" s="113"/>
-      <c r="D14" s="67"/>
-      <c r="E14" s="108"/>
-      <c r="F14" s="108"/>
-      <c r="G14" s="12"/>
+      <c r="A14" s="148"/>
+      <c r="B14" s="80"/>
+      <c r="C14" s="85"/>
+      <c r="D14" s="65"/>
+      <c r="E14" s="80"/>
+      <c r="F14" s="80"/>
+      <c r="G14" s="156"/>
     </row>
     <row r="15" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A15" s="4"/>
-      <c r="B15" s="114" t="s">
+      <c r="A15" s="148"/>
+      <c r="B15" s="119" t="s">
         <v>4</v>
       </c>
-      <c r="C15" s="115"/>
-      <c r="D15" s="116" t="s">
+      <c r="C15" s="120"/>
+      <c r="D15" s="86" t="s">
         <v>5</v>
       </c>
-      <c r="E15" s="116" t="s">
+      <c r="E15" s="86" t="s">
         <v>6</v>
       </c>
-      <c r="F15" s="117" t="s">
+      <c r="F15" s="87" t="s">
         <v>7</v>
       </c>
-      <c r="G15" s="7"/>
+      <c r="G15" s="150"/>
     </row>
     <row r="16" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A16" s="4"/>
-      <c r="B16" s="118" t="s">
+      <c r="A16" s="148"/>
+      <c r="B16" s="114" t="s">
         <v>24</v>
       </c>
-      <c r="C16" s="119"/>
-      <c r="D16" s="120">
+      <c r="C16" s="115"/>
+      <c r="D16" s="88">
         <v>1</v>
       </c>
-      <c r="E16" s="121">
+      <c r="E16" s="89">
         <v>2000</v>
       </c>
-      <c r="F16" s="121">
+      <c r="F16" s="89">
         <f t="shared" ref="F16:F26" si="0">D16*E16</f>
         <v>2000</v>
       </c>
-      <c r="G16" s="13"/>
+      <c r="G16" s="157"/>
     </row>
     <row r="17" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A17" s="4"/>
-      <c r="B17" s="122" t="s">
+      <c r="A17" s="148"/>
+      <c r="B17" s="116" t="s">
         <v>25</v>
       </c>
-      <c r="C17" s="123"/>
-      <c r="D17" s="124">
+      <c r="C17" s="117"/>
+      <c r="D17" s="90">
         <v>1</v>
       </c>
-      <c r="E17" s="125">
+      <c r="E17" s="91">
         <v>1000</v>
       </c>
-      <c r="F17" s="125">
+      <c r="F17" s="91">
         <f t="shared" si="0"/>
         <v>1000</v>
       </c>
-      <c r="G17" s="13"/>
+      <c r="G17" s="157"/>
     </row>
     <row r="18" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A18" s="4"/>
-      <c r="B18" s="126" t="s">
+      <c r="A18" s="148"/>
+      <c r="B18" s="118" t="s">
         <v>26</v>
       </c>
-      <c r="C18" s="123"/>
-      <c r="D18" s="127">
+      <c r="C18" s="117"/>
+      <c r="D18" s="92">
         <v>1</v>
       </c>
-      <c r="E18" s="128">
+      <c r="E18" s="93">
         <v>2500</v>
       </c>
-      <c r="F18" s="128">
+      <c r="F18" s="93">
         <f t="shared" si="0"/>
         <v>2500</v>
       </c>
-      <c r="G18" s="13"/>
+      <c r="G18" s="157"/>
     </row>
     <row r="19" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A19" s="4"/>
-      <c r="B19" s="122" t="s">
+      <c r="A19" s="148"/>
+      <c r="B19" s="116" t="s">
         <v>29</v>
       </c>
-      <c r="C19" s="123"/>
-      <c r="D19" s="124">
+      <c r="C19" s="117"/>
+      <c r="D19" s="90">
         <v>1</v>
       </c>
-      <c r="E19" s="125">
+      <c r="E19" s="91">
         <v>300</v>
       </c>
-      <c r="F19" s="125">
+      <c r="F19" s="91">
         <f t="shared" si="0"/>
         <v>300</v>
       </c>
-      <c r="G19" s="13"/>
+      <c r="G19" s="157"/>
     </row>
     <row r="20" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A20" s="4"/>
-      <c r="B20" s="126" t="s">
+      <c r="A20" s="148"/>
+      <c r="B20" s="118" t="s">
         <v>30</v>
       </c>
-      <c r="C20" s="123"/>
-      <c r="D20" s="127">
+      <c r="C20" s="117"/>
+      <c r="D20" s="92">
         <v>1</v>
       </c>
-      <c r="E20" s="128">
+      <c r="E20" s="93">
         <v>850</v>
       </c>
-      <c r="F20" s="128">
+      <c r="F20" s="93">
         <f t="shared" si="0"/>
         <v>850</v>
       </c>
-      <c r="G20" s="13"/>
+      <c r="G20" s="157"/>
     </row>
     <row r="21" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A21" s="4"/>
-      <c r="B21" s="122"/>
-      <c r="C21" s="123"/>
-      <c r="D21" s="124"/>
-      <c r="E21" s="125"/>
-      <c r="F21" s="125">
+      <c r="A21" s="148"/>
+      <c r="B21" s="116"/>
+      <c r="C21" s="117"/>
+      <c r="D21" s="90"/>
+      <c r="E21" s="91"/>
+      <c r="F21" s="91">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="G21" s="13"/>
+      <c r="G21" s="157"/>
     </row>
     <row r="22" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A22" s="4"/>
-      <c r="B22" s="126"/>
-      <c r="C22" s="123"/>
-      <c r="D22" s="127"/>
-      <c r="E22" s="128"/>
-      <c r="F22" s="128">
+      <c r="A22" s="148"/>
+      <c r="B22" s="118"/>
+      <c r="C22" s="117"/>
+      <c r="D22" s="92"/>
+      <c r="E22" s="93"/>
+      <c r="F22" s="93">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="G22" s="13"/>
+      <c r="G22" s="157"/>
     </row>
     <row r="23" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A23" s="4"/>
-      <c r="B23" s="122"/>
-      <c r="C23" s="123"/>
-      <c r="D23" s="124"/>
-      <c r="E23" s="125"/>
-      <c r="F23" s="125">
+      <c r="A23" s="148"/>
+      <c r="B23" s="116"/>
+      <c r="C23" s="117"/>
+      <c r="D23" s="90"/>
+      <c r="E23" s="91"/>
+      <c r="F23" s="91">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="G23" s="13"/>
+      <c r="G23" s="157"/>
     </row>
     <row r="24" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A24" s="4"/>
-      <c r="B24" s="126"/>
-      <c r="C24" s="123"/>
-      <c r="D24" s="127"/>
-      <c r="E24" s="128"/>
-      <c r="F24" s="128">
+      <c r="A24" s="148"/>
+      <c r="B24" s="118"/>
+      <c r="C24" s="117"/>
+      <c r="D24" s="92"/>
+      <c r="E24" s="93"/>
+      <c r="F24" s="93">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="G24" s="13"/>
+      <c r="G24" s="157"/>
     </row>
     <row r="25" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A25" s="4"/>
-      <c r="B25" s="122"/>
-      <c r="C25" s="123"/>
-      <c r="D25" s="124"/>
-      <c r="E25" s="125"/>
-      <c r="F25" s="125">
+      <c r="A25" s="148"/>
+      <c r="B25" s="116"/>
+      <c r="C25" s="117"/>
+      <c r="D25" s="90"/>
+      <c r="E25" s="91"/>
+      <c r="F25" s="91">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="G25" s="13"/>
+      <c r="G25" s="157"/>
     </row>
     <row r="26" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A26" s="4"/>
-      <c r="B26" s="126"/>
-      <c r="C26" s="123"/>
-      <c r="D26" s="127"/>
-      <c r="E26" s="128"/>
-      <c r="F26" s="129">
+      <c r="A26" s="148"/>
+      <c r="B26" s="118"/>
+      <c r="C26" s="117"/>
+      <c r="D26" s="92"/>
+      <c r="E26" s="93"/>
+      <c r="F26" s="94">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="G26" s="13"/>
+      <c r="G26" s="157"/>
     </row>
     <row r="27" spans="1:7" ht="19.5" customHeight="1" x14ac:dyDescent="0.65">
-      <c r="A27" s="4"/>
-      <c r="B27" s="130"/>
-      <c r="C27" s="131"/>
-      <c r="D27" s="132"/>
-      <c r="E27" s="133" t="s">
+      <c r="A27" s="148"/>
+      <c r="B27" s="95"/>
+      <c r="C27" s="96"/>
+      <c r="D27" s="97"/>
+      <c r="E27" s="98" t="s">
         <v>8</v>
       </c>
-      <c r="F27" s="134">
+      <c r="F27" s="99">
         <f>SUM(F16:F26)</f>
         <v>6650</v>
       </c>
-      <c r="G27" s="14"/>
+      <c r="G27" s="158"/>
     </row>
     <row r="28" spans="1:7" ht="19.5" customHeight="1" x14ac:dyDescent="0.65">
-      <c r="A28" s="4"/>
-      <c r="B28" s="135" t="s">
+      <c r="A28" s="148"/>
+      <c r="B28" s="113" t="s">
         <v>9</v>
       </c>
-      <c r="C28" s="71"/>
-      <c r="D28" s="132"/>
-      <c r="E28" s="133" t="s">
+      <c r="C28" s="106"/>
+      <c r="D28" s="97"/>
+      <c r="E28" s="98" t="s">
         <v>10</v>
       </c>
-      <c r="F28" s="134">
+      <c r="F28" s="99">
         <f>0.15*F27</f>
         <v>997.5</v>
       </c>
-      <c r="G28" s="14"/>
+      <c r="G28" s="158"/>
     </row>
     <row r="29" spans="1:7" ht="19.5" customHeight="1" x14ac:dyDescent="0.65">
-      <c r="A29" s="4"/>
-      <c r="B29" s="71"/>
-      <c r="C29" s="71"/>
-      <c r="D29" s="132"/>
-      <c r="E29" s="133" t="s">
+      <c r="A29" s="148"/>
+      <c r="B29" s="106"/>
+      <c r="C29" s="106"/>
+      <c r="D29" s="97"/>
+      <c r="E29" s="98" t="s">
         <v>11</v>
       </c>
-      <c r="F29" s="134">
+      <c r="F29" s="99">
         <f>F27-F28</f>
         <v>5652.5</v>
       </c>
-      <c r="G29" s="14"/>
+      <c r="G29" s="158"/>
     </row>
     <row r="30" spans="1:7" ht="19.5" customHeight="1" x14ac:dyDescent="0.65">
-      <c r="A30" s="4"/>
-      <c r="B30" s="71"/>
-      <c r="C30" s="71"/>
-      <c r="D30" s="132"/>
-      <c r="E30" s="133" t="s">
+      <c r="A30" s="148"/>
+      <c r="B30" s="106"/>
+      <c r="C30" s="106"/>
+      <c r="D30" s="97"/>
+      <c r="E30" s="98" t="s">
         <v>12</v>
       </c>
-      <c r="F30" s="136">
+      <c r="F30" s="100">
         <v>0.27</v>
       </c>
-      <c r="G30" s="15"/>
+      <c r="G30" s="159"/>
     </row>
     <row r="31" spans="1:7" ht="19.5" customHeight="1" x14ac:dyDescent="0.65">
-      <c r="A31" s="4"/>
-      <c r="B31" s="71"/>
-      <c r="C31" s="71"/>
-      <c r="D31" s="132"/>
-      <c r="E31" s="133" t="s">
+      <c r="A31" s="148"/>
+      <c r="B31" s="106"/>
+      <c r="C31" s="106"/>
+      <c r="D31" s="97"/>
+      <c r="E31" s="98" t="s">
         <v>13</v>
       </c>
-      <c r="F31" s="134">
+      <c r="F31" s="99">
         <f>F29*F30</f>
         <v>1526.1750000000002</v>
       </c>
-      <c r="G31" s="14"/>
+      <c r="G31" s="158"/>
     </row>
     <row r="32" spans="1:7" ht="33.75" customHeight="1" x14ac:dyDescent="0.65">
-      <c r="A32" s="4"/>
-      <c r="B32" s="137"/>
-      <c r="C32" s="71"/>
-      <c r="D32" s="132"/>
-      <c r="E32" s="138" t="s">
+      <c r="A32" s="148"/>
+      <c r="B32" s="105"/>
+      <c r="C32" s="106"/>
+      <c r="D32" s="97"/>
+      <c r="E32" s="101" t="s">
         <v>15</v>
       </c>
-      <c r="F32" s="139">
+      <c r="F32" s="102">
         <f>F29+F31</f>
         <v>7178.6750000000002</v>
       </c>
-      <c r="G32" s="17"/>
+      <c r="G32" s="160"/>
     </row>
     <row r="33" spans="1:7" ht="9.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A33" s="4"/>
-      <c r="B33" s="140"/>
-      <c r="C33" s="71"/>
-      <c r="D33" s="71"/>
-      <c r="E33" s="71"/>
-      <c r="F33" s="71"/>
-      <c r="G33" s="18"/>
+      <c r="A33" s="148"/>
+      <c r="B33" s="107"/>
+      <c r="C33" s="106"/>
+      <c r="D33" s="106"/>
+      <c r="E33" s="106"/>
+      <c r="F33" s="106"/>
+      <c r="G33" s="161"/>
     </row>
     <row r="34" spans="1:7" ht="9.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A34" s="4"/>
-      <c r="B34" s="141" t="s">
+      <c r="A34" s="148"/>
+      <c r="B34" s="103" t="s">
         <v>16</v>
       </c>
-      <c r="C34" s="142"/>
-      <c r="D34" s="142"/>
-      <c r="E34" s="142"/>
-      <c r="F34" s="142"/>
-      <c r="G34" s="18"/>
+      <c r="C34" s="104"/>
+      <c r="D34" s="104"/>
+      <c r="E34" s="104"/>
+      <c r="F34" s="104"/>
+      <c r="G34" s="161"/>
     </row>
     <row r="35" spans="1:7" ht="36.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A35" s="4"/>
-      <c r="B35" s="143" t="s">
+      <c r="A35" s="148"/>
+      <c r="B35" s="108" t="s">
         <v>28</v>
       </c>
-      <c r="C35" s="144"/>
-      <c r="D35" s="144"/>
-      <c r="E35" s="144"/>
-      <c r="F35" s="144"/>
-      <c r="G35" s="19"/>
+      <c r="C35" s="109"/>
+      <c r="D35" s="109"/>
+      <c r="E35" s="109"/>
+      <c r="F35" s="109"/>
+      <c r="G35" s="162"/>
     </row>
     <row r="36" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A36" s="4"/>
-      <c r="B36" s="87"/>
-      <c r="C36" s="88"/>
-      <c r="D36" s="88"/>
-      <c r="E36" s="88"/>
-      <c r="F36" s="88"/>
-      <c r="G36" s="20"/>
+      <c r="A36" s="148"/>
+      <c r="B36" s="163"/>
+      <c r="C36" s="164"/>
+      <c r="D36" s="164"/>
+      <c r="E36" s="164"/>
+      <c r="F36" s="164"/>
+      <c r="G36" s="152"/>
     </row>
     <row r="37" spans="1:7" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="21"/>
-      <c r="B37" s="89"/>
-      <c r="C37" s="88"/>
-      <c r="D37" s="88"/>
-      <c r="E37" s="88"/>
-      <c r="F37" s="88"/>
-      <c r="G37" s="24"/>
+      <c r="A37" s="165"/>
+      <c r="B37" s="166"/>
+      <c r="C37" s="164"/>
+      <c r="D37" s="164"/>
+      <c r="E37" s="164"/>
+      <c r="F37" s="164"/>
+      <c r="G37" s="167"/>
     </row>
     <row r="38" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A38" s="4"/>
-      <c r="B38" s="4"/>
-      <c r="C38" s="4"/>
-      <c r="D38" s="4"/>
-      <c r="E38" s="4"/>
-      <c r="F38" s="4"/>
-      <c r="G38" s="4"/>
+      <c r="A38" s="148"/>
+      <c r="B38" s="148"/>
+      <c r="C38" s="148"/>
+      <c r="D38" s="148"/>
+      <c r="E38" s="148"/>
+      <c r="F38" s="148"/>
+      <c r="G38" s="148"/>
     </row>
   </sheetData>
   <mergeCells count="23">
-    <mergeCell ref="B32:C32"/>
-    <mergeCell ref="B33:F33"/>
-    <mergeCell ref="B35:F35"/>
-    <mergeCell ref="B36:F36"/>
-    <mergeCell ref="B37:F37"/>
+    <mergeCell ref="B15:C15"/>
+    <mergeCell ref="B2:C2"/>
+    <mergeCell ref="E2:F2"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="B4:C4"/>
+    <mergeCell ref="B5:C5"/>
     <mergeCell ref="B28:C31"/>
     <mergeCell ref="B16:C16"/>
     <mergeCell ref="B17:C17"/>
@@ -1903,12 +2027,11 @@
     <mergeCell ref="B24:C24"/>
     <mergeCell ref="B25:C25"/>
     <mergeCell ref="B26:C26"/>
-    <mergeCell ref="B15:C15"/>
-    <mergeCell ref="B2:C2"/>
-    <mergeCell ref="E2:F2"/>
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="B4:C4"/>
-    <mergeCell ref="B5:C5"/>
+    <mergeCell ref="B32:C32"/>
+    <mergeCell ref="B33:F33"/>
+    <mergeCell ref="B35:F35"/>
+    <mergeCell ref="B36:F36"/>
+    <mergeCell ref="B37:F37"/>
   </mergeCells>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0" right="0" top="0" bottom="0" header="0" footer="0"/>
@@ -1943,186 +2066,186 @@
   <sheetData>
     <row r="1" spans="1:7" ht="6.75" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A1" s="1"/>
-      <c r="B1" s="25"/>
-      <c r="C1" s="25"/>
-      <c r="D1" s="25"/>
-      <c r="E1" s="25"/>
-      <c r="F1" s="25"/>
+      <c r="B1" s="23"/>
+      <c r="C1" s="23"/>
+      <c r="D1" s="23"/>
+      <c r="E1" s="23"/>
+      <c r="F1" s="23"/>
       <c r="G1" s="1"/>
     </row>
     <row r="2" spans="1:7" ht="31.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A2" s="2"/>
-      <c r="B2" s="70" t="s">
+      <c r="B2" s="121" t="s">
         <v>17</v>
       </c>
-      <c r="C2" s="71"/>
-      <c r="D2" s="26"/>
-      <c r="E2" s="72" t="s">
+      <c r="C2" s="106"/>
+      <c r="D2" s="24"/>
+      <c r="E2" s="140" t="s">
         <v>0</v>
       </c>
-      <c r="F2" s="73"/>
+      <c r="F2" s="129"/>
       <c r="G2" s="3"/>
     </row>
     <row r="3" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A3" s="4"/>
-      <c r="B3" s="74" t="s">
+      <c r="B3" s="139" t="s">
         <v>19</v>
       </c>
-      <c r="C3" s="73"/>
-      <c r="D3" s="27"/>
-      <c r="E3" s="28"/>
-      <c r="F3" s="29"/>
+      <c r="C3" s="129"/>
+      <c r="D3" s="25"/>
+      <c r="E3" s="26"/>
+      <c r="F3" s="27"/>
       <c r="G3" s="5"/>
     </row>
     <row r="4" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A4" s="4"/>
-      <c r="B4" s="75" t="s">
+      <c r="B4" s="141" t="s">
         <v>21</v>
       </c>
-      <c r="C4" s="73"/>
-      <c r="D4" s="27"/>
-      <c r="E4" s="28"/>
-      <c r="F4" s="29"/>
+      <c r="C4" s="129"/>
+      <c r="D4" s="25"/>
+      <c r="E4" s="26"/>
+      <c r="F4" s="27"/>
       <c r="G4" s="5"/>
     </row>
     <row r="5" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A5" s="4"/>
-      <c r="B5" s="76"/>
-      <c r="C5" s="73"/>
-      <c r="D5" s="27"/>
-      <c r="E5" s="28"/>
-      <c r="F5" s="29"/>
+      <c r="B5" s="142"/>
+      <c r="C5" s="129"/>
+      <c r="D5" s="25"/>
+      <c r="E5" s="26"/>
+      <c r="F5" s="27"/>
       <c r="G5" s="5"/>
     </row>
     <row r="6" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A6" s="4"/>
-      <c r="B6" s="30"/>
-      <c r="C6" s="27"/>
-      <c r="D6" s="31"/>
-      <c r="E6" s="27"/>
-      <c r="F6" s="32"/>
+      <c r="B6" s="28"/>
+      <c r="C6" s="25"/>
+      <c r="D6" s="29"/>
+      <c r="E6" s="25"/>
+      <c r="F6" s="30"/>
       <c r="G6" s="7"/>
     </row>
     <row r="7" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="4"/>
-      <c r="B7" s="33"/>
-      <c r="C7" s="27"/>
-      <c r="D7" s="34"/>
-      <c r="E7" s="27"/>
-      <c r="F7" s="35"/>
+      <c r="B7" s="31"/>
+      <c r="C7" s="25"/>
+      <c r="D7" s="32"/>
+      <c r="E7" s="25"/>
+      <c r="F7" s="33"/>
       <c r="G7" s="8"/>
     </row>
     <row r="8" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="4"/>
-      <c r="B8" s="33"/>
-      <c r="C8" s="27"/>
-      <c r="D8" s="31"/>
-      <c r="E8" s="27"/>
-      <c r="F8" s="36"/>
+      <c r="B8" s="31"/>
+      <c r="C8" s="25"/>
+      <c r="D8" s="29"/>
+      <c r="E8" s="25"/>
+      <c r="F8" s="34"/>
       <c r="G8" s="7"/>
     </row>
     <row r="9" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="4"/>
-      <c r="B9" s="37" t="s">
+      <c r="B9" s="35" t="s">
         <v>23</v>
       </c>
-      <c r="C9" s="27"/>
-      <c r="D9" s="66"/>
-      <c r="E9" s="38" t="s">
+      <c r="C9" s="25"/>
+      <c r="D9" s="64"/>
+      <c r="E9" s="36" t="s">
         <v>1</v>
       </c>
-      <c r="F9" s="39" t="s">
+      <c r="F9" s="37" t="s">
         <v>2</v>
       </c>
       <c r="G9" s="9"/>
     </row>
     <row r="10" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="4"/>
-      <c r="B10" s="40" t="s">
+      <c r="B10" s="38" t="s">
         <v>27</v>
       </c>
-      <c r="C10" s="27"/>
-      <c r="D10" s="40"/>
-      <c r="E10" s="38" t="s">
+      <c r="C10" s="25"/>
+      <c r="D10" s="38"/>
+      <c r="E10" s="36" t="s">
         <v>3</v>
       </c>
-      <c r="F10" s="39" t="s">
+      <c r="F10" s="37" t="s">
         <v>22</v>
       </c>
       <c r="G10" s="6"/>
     </row>
     <row r="11" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="4"/>
-      <c r="B11" s="40" t="s">
+      <c r="B11" s="38" t="s">
         <v>18</v>
       </c>
-      <c r="C11" s="27"/>
-      <c r="D11" s="40"/>
-      <c r="E11" s="41"/>
-      <c r="F11" s="42"/>
+      <c r="C11" s="25"/>
+      <c r="D11" s="38"/>
+      <c r="E11" s="39"/>
+      <c r="F11" s="40"/>
       <c r="G11" s="10"/>
     </row>
     <row r="12" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="4"/>
-      <c r="B12" s="40" t="s">
+      <c r="B12" s="38" t="s">
         <v>19</v>
       </c>
-      <c r="C12" s="27"/>
-      <c r="D12" s="40"/>
-      <c r="E12" s="43"/>
-      <c r="F12" s="44"/>
+      <c r="C12" s="25"/>
+      <c r="D12" s="38"/>
+      <c r="E12" s="41"/>
+      <c r="F12" s="42"/>
       <c r="G12" s="11"/>
     </row>
     <row r="13" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="4"/>
-      <c r="B13" s="40" t="s">
+      <c r="B13" s="38" t="s">
         <v>20</v>
       </c>
-      <c r="C13" s="45"/>
-      <c r="D13" s="40"/>
-      <c r="E13" s="43"/>
-      <c r="F13" s="40"/>
+      <c r="C13" s="43"/>
+      <c r="D13" s="38"/>
+      <c r="E13" s="41"/>
+      <c r="F13" s="38"/>
       <c r="G13" s="12"/>
     </row>
     <row r="14" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A14" s="4"/>
-      <c r="B14" s="40"/>
-      <c r="C14" s="45"/>
-      <c r="D14" s="30"/>
-      <c r="E14" s="40"/>
-      <c r="F14" s="40"/>
+      <c r="B14" s="38"/>
+      <c r="C14" s="43"/>
+      <c r="D14" s="28"/>
+      <c r="E14" s="38"/>
+      <c r="F14" s="38"/>
       <c r="G14" s="12"/>
     </row>
     <row r="15" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A15" s="4"/>
-      <c r="B15" s="68" t="s">
+      <c r="B15" s="137" t="s">
         <v>4</v>
       </c>
-      <c r="C15" s="69"/>
-      <c r="D15" s="46" t="s">
+      <c r="C15" s="138"/>
+      <c r="D15" s="44" t="s">
         <v>5</v>
       </c>
-      <c r="E15" s="46" t="s">
+      <c r="E15" s="44" t="s">
         <v>6</v>
       </c>
-      <c r="F15" s="47" t="s">
+      <c r="F15" s="45" t="s">
         <v>7</v>
       </c>
       <c r="G15" s="7"/>
     </row>
     <row r="16" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A16" s="4"/>
-      <c r="B16" s="78" t="s">
+      <c r="B16" s="135" t="s">
         <v>24</v>
       </c>
-      <c r="C16" s="79"/>
-      <c r="D16" s="48">
+      <c r="C16" s="136"/>
+      <c r="D16" s="46">
         <v>1</v>
       </c>
-      <c r="E16" s="49">
+      <c r="E16" s="47">
         <v>2000</v>
       </c>
-      <c r="F16" s="49">
+      <c r="F16" s="47">
         <f t="shared" ref="F16:F26" si="0">D16*E16</f>
         <v>2000</v>
       </c>
@@ -2130,17 +2253,17 @@
     </row>
     <row r="17" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A17" s="4"/>
-      <c r="B17" s="80" t="s">
+      <c r="B17" s="131" t="s">
         <v>25</v>
       </c>
-      <c r="C17" s="81"/>
-      <c r="D17" s="50">
+      <c r="C17" s="132"/>
+      <c r="D17" s="48">
         <v>1</v>
       </c>
-      <c r="E17" s="51">
+      <c r="E17" s="49">
         <v>500</v>
       </c>
-      <c r="F17" s="51">
+      <c r="F17" s="49">
         <f t="shared" si="0"/>
         <v>500</v>
       </c>
@@ -2148,17 +2271,17 @@
     </row>
     <row r="18" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A18" s="4"/>
-      <c r="B18" s="82" t="s">
+      <c r="B18" s="133" t="s">
         <v>26</v>
       </c>
-      <c r="C18" s="81"/>
-      <c r="D18" s="52">
+      <c r="C18" s="132"/>
+      <c r="D18" s="50">
         <v>1</v>
       </c>
-      <c r="E18" s="53">
+      <c r="E18" s="51">
         <v>2500</v>
       </c>
-      <c r="F18" s="53">
+      <c r="F18" s="51">
         <f t="shared" si="0"/>
         <v>2500</v>
       </c>
@@ -2166,11 +2289,11 @@
     </row>
     <row r="19" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A19" s="4"/>
-      <c r="B19" s="80"/>
-      <c r="C19" s="81"/>
-      <c r="D19" s="50"/>
-      <c r="E19" s="51"/>
-      <c r="F19" s="51">
+      <c r="B19" s="131"/>
+      <c r="C19" s="132"/>
+      <c r="D19" s="48"/>
+      <c r="E19" s="49"/>
+      <c r="F19" s="49">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -2178,11 +2301,11 @@
     </row>
     <row r="20" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A20" s="4"/>
-      <c r="B20" s="82"/>
-      <c r="C20" s="81"/>
-      <c r="D20" s="52"/>
-      <c r="E20" s="53"/>
-      <c r="F20" s="53">
+      <c r="B20" s="133"/>
+      <c r="C20" s="132"/>
+      <c r="D20" s="50"/>
+      <c r="E20" s="51"/>
+      <c r="F20" s="51">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -2190,11 +2313,11 @@
     </row>
     <row r="21" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A21" s="4"/>
-      <c r="B21" s="80"/>
-      <c r="C21" s="81"/>
-      <c r="D21" s="50"/>
-      <c r="E21" s="51"/>
-      <c r="F21" s="51">
+      <c r="B21" s="131"/>
+      <c r="C21" s="132"/>
+      <c r="D21" s="48"/>
+      <c r="E21" s="49"/>
+      <c r="F21" s="49">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -2202,11 +2325,11 @@
     </row>
     <row r="22" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A22" s="4"/>
-      <c r="B22" s="82"/>
-      <c r="C22" s="81"/>
-      <c r="D22" s="52"/>
-      <c r="E22" s="53"/>
-      <c r="F22" s="53">
+      <c r="B22" s="133"/>
+      <c r="C22" s="132"/>
+      <c r="D22" s="50"/>
+      <c r="E22" s="51"/>
+      <c r="F22" s="51">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -2214,11 +2337,11 @@
     </row>
     <row r="23" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A23" s="4"/>
-      <c r="B23" s="80"/>
-      <c r="C23" s="81"/>
-      <c r="D23" s="50"/>
-      <c r="E23" s="51"/>
-      <c r="F23" s="51">
+      <c r="B23" s="131"/>
+      <c r="C23" s="132"/>
+      <c r="D23" s="48"/>
+      <c r="E23" s="49"/>
+      <c r="F23" s="49">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -2226,11 +2349,11 @@
     </row>
     <row r="24" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A24" s="4"/>
-      <c r="B24" s="82"/>
-      <c r="C24" s="81"/>
-      <c r="D24" s="52"/>
-      <c r="E24" s="53"/>
-      <c r="F24" s="53">
+      <c r="B24" s="133"/>
+      <c r="C24" s="132"/>
+      <c r="D24" s="50"/>
+      <c r="E24" s="51"/>
+      <c r="F24" s="51">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -2238,11 +2361,11 @@
     </row>
     <row r="25" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A25" s="4"/>
-      <c r="B25" s="80"/>
-      <c r="C25" s="81"/>
-      <c r="D25" s="50"/>
-      <c r="E25" s="51"/>
-      <c r="F25" s="51">
+      <c r="B25" s="131"/>
+      <c r="C25" s="132"/>
+      <c r="D25" s="48"/>
+      <c r="E25" s="49"/>
+      <c r="F25" s="49">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -2250,11 +2373,11 @@
     </row>
     <row r="26" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A26" s="4"/>
-      <c r="B26" s="82"/>
-      <c r="C26" s="81"/>
-      <c r="D26" s="52"/>
-      <c r="E26" s="53"/>
-      <c r="F26" s="54">
+      <c r="B26" s="133"/>
+      <c r="C26" s="132"/>
+      <c r="D26" s="50"/>
+      <c r="E26" s="51"/>
+      <c r="F26" s="52">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -2262,13 +2385,13 @@
     </row>
     <row r="27" spans="1:7" ht="19.5" customHeight="1" x14ac:dyDescent="0.65">
       <c r="A27" s="4"/>
-      <c r="B27" s="55"/>
-      <c r="C27" s="56"/>
-      <c r="D27" s="57"/>
-      <c r="E27" s="58" t="s">
+      <c r="B27" s="53"/>
+      <c r="C27" s="54"/>
+      <c r="D27" s="55"/>
+      <c r="E27" s="56" t="s">
         <v>8</v>
       </c>
-      <c r="F27" s="59">
+      <c r="F27" s="57">
         <f>SUM(F16:F26)</f>
         <v>5000</v>
       </c>
@@ -2276,15 +2399,15 @@
     </row>
     <row r="28" spans="1:7" ht="19.5" customHeight="1" x14ac:dyDescent="0.65">
       <c r="A28" s="4"/>
-      <c r="B28" s="77" t="s">
+      <c r="B28" s="134" t="s">
         <v>9</v>
       </c>
-      <c r="C28" s="73"/>
-      <c r="D28" s="57"/>
-      <c r="E28" s="58" t="s">
+      <c r="C28" s="129"/>
+      <c r="D28" s="55"/>
+      <c r="E28" s="56" t="s">
         <v>10</v>
       </c>
-      <c r="F28" s="59">
+      <c r="F28" s="57">
         <f>0.15*F27</f>
         <v>750</v>
       </c>
@@ -2292,13 +2415,13 @@
     </row>
     <row r="29" spans="1:7" ht="19.5" customHeight="1" x14ac:dyDescent="0.65">
       <c r="A29" s="4"/>
-      <c r="B29" s="73"/>
-      <c r="C29" s="73"/>
-      <c r="D29" s="57"/>
-      <c r="E29" s="58" t="s">
+      <c r="B29" s="129"/>
+      <c r="C29" s="129"/>
+      <c r="D29" s="55"/>
+      <c r="E29" s="56" t="s">
         <v>11</v>
       </c>
-      <c r="F29" s="59">
+      <c r="F29" s="57">
         <f>F27-F28</f>
         <v>4250</v>
       </c>
@@ -2306,26 +2429,26 @@
     </row>
     <row r="30" spans="1:7" ht="19.5" customHeight="1" x14ac:dyDescent="0.65">
       <c r="A30" s="4"/>
-      <c r="B30" s="73"/>
-      <c r="C30" s="73"/>
-      <c r="D30" s="57"/>
-      <c r="E30" s="58" t="s">
+      <c r="B30" s="129"/>
+      <c r="C30" s="129"/>
+      <c r="D30" s="55"/>
+      <c r="E30" s="56" t="s">
         <v>12</v>
       </c>
-      <c r="F30" s="60">
+      <c r="F30" s="58">
         <v>0.27</v>
       </c>
       <c r="G30" s="15"/>
     </row>
     <row r="31" spans="1:7" ht="19.5" customHeight="1" x14ac:dyDescent="0.65">
       <c r="A31" s="4"/>
-      <c r="B31" s="73"/>
-      <c r="C31" s="73"/>
-      <c r="D31" s="57"/>
-      <c r="E31" s="58" t="s">
+      <c r="B31" s="129"/>
+      <c r="C31" s="129"/>
+      <c r="D31" s="55"/>
+      <c r="E31" s="56" t="s">
         <v>13</v>
       </c>
-      <c r="F31" s="59">
+      <c r="F31" s="57">
         <f>F29*F30</f>
         <v>1147.5</v>
       </c>
@@ -2333,26 +2456,26 @@
     </row>
     <row r="32" spans="1:7" ht="19.5" customHeight="1" x14ac:dyDescent="0.65">
       <c r="A32" s="4"/>
-      <c r="B32" s="73"/>
-      <c r="C32" s="73"/>
-      <c r="D32" s="57"/>
-      <c r="E32" s="58" t="s">
+      <c r="B32" s="129"/>
+      <c r="C32" s="129"/>
+      <c r="D32" s="55"/>
+      <c r="E32" s="56" t="s">
         <v>14</v>
       </c>
-      <c r="F32" s="61">
+      <c r="F32" s="59">
         <v>0</v>
       </c>
       <c r="G32" s="16"/>
     </row>
     <row r="33" spans="1:7" ht="33.75" customHeight="1" x14ac:dyDescent="0.65">
       <c r="A33" s="4"/>
-      <c r="B33" s="83"/>
-      <c r="C33" s="73"/>
-      <c r="D33" s="57"/>
-      <c r="E33" s="62" t="s">
+      <c r="B33" s="128"/>
+      <c r="C33" s="129"/>
+      <c r="D33" s="55"/>
+      <c r="E33" s="60" t="s">
         <v>15</v>
       </c>
-      <c r="F33" s="63">
+      <c r="F33" s="61">
         <f>F29+F31+F32</f>
         <v>5397.5</v>
       </c>
@@ -2360,51 +2483,51 @@
     </row>
     <row r="34" spans="1:7" ht="9.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A34" s="4"/>
-      <c r="B34" s="84"/>
-      <c r="C34" s="73"/>
-      <c r="D34" s="73"/>
-      <c r="E34" s="73"/>
-      <c r="F34" s="73"/>
+      <c r="B34" s="130"/>
+      <c r="C34" s="129"/>
+      <c r="D34" s="129"/>
+      <c r="E34" s="129"/>
+      <c r="F34" s="129"/>
       <c r="G34" s="18"/>
     </row>
     <row r="35" spans="1:7" ht="9.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A35" s="4"/>
-      <c r="B35" s="64" t="s">
+      <c r="B35" s="62" t="s">
         <v>16</v>
       </c>
-      <c r="C35" s="65"/>
-      <c r="D35" s="65"/>
-      <c r="E35" s="65"/>
-      <c r="F35" s="65"/>
+      <c r="C35" s="63"/>
+      <c r="D35" s="63"/>
+      <c r="E35" s="63"/>
+      <c r="F35" s="63"/>
       <c r="G35" s="18"/>
     </row>
     <row r="36" spans="1:7" ht="36.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A36" s="4"/>
-      <c r="B36" s="85" t="s">
+      <c r="B36" s="126" t="s">
         <v>28</v>
       </c>
-      <c r="C36" s="86"/>
-      <c r="D36" s="86"/>
-      <c r="E36" s="86"/>
-      <c r="F36" s="86"/>
+      <c r="C36" s="127"/>
+      <c r="D36" s="127"/>
+      <c r="E36" s="127"/>
+      <c r="F36" s="127"/>
       <c r="G36" s="19"/>
     </row>
     <row r="37" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A37" s="4"/>
-      <c r="B37" s="87"/>
-      <c r="C37" s="88"/>
-      <c r="D37" s="88"/>
-      <c r="E37" s="88"/>
-      <c r="F37" s="88"/>
+      <c r="B37" s="110"/>
+      <c r="C37" s="111"/>
+      <c r="D37" s="111"/>
+      <c r="E37" s="111"/>
+      <c r="F37" s="111"/>
       <c r="G37" s="20"/>
     </row>
     <row r="38" spans="1:7" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="21"/>
-      <c r="B38" s="89"/>
-      <c r="C38" s="88"/>
-      <c r="D38" s="88"/>
-      <c r="E38" s="88"/>
-      <c r="F38" s="88"/>
+      <c r="B38" s="112"/>
+      <c r="C38" s="111"/>
+      <c r="D38" s="111"/>
+      <c r="E38" s="111"/>
+      <c r="F38" s="111"/>
       <c r="G38" s="22"/>
     </row>
     <row r="39" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -2418,16 +2541,11 @@
     </row>
   </sheetData>
   <mergeCells count="23">
-    <mergeCell ref="B37:F37"/>
-    <mergeCell ref="B36:F36"/>
-    <mergeCell ref="B33:C33"/>
-    <mergeCell ref="B38:F38"/>
-    <mergeCell ref="B34:F34"/>
-    <mergeCell ref="B25:C25"/>
-    <mergeCell ref="B24:C24"/>
-    <mergeCell ref="B23:C23"/>
-    <mergeCell ref="B28:C32"/>
-    <mergeCell ref="B26:C26"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="B2:C2"/>
+    <mergeCell ref="E2:F2"/>
+    <mergeCell ref="B4:C4"/>
+    <mergeCell ref="B5:C5"/>
     <mergeCell ref="B16:C16"/>
     <mergeCell ref="B15:C15"/>
     <mergeCell ref="B22:C22"/>
@@ -2436,11 +2554,16 @@
     <mergeCell ref="B21:C21"/>
     <mergeCell ref="B19:C19"/>
     <mergeCell ref="B20:C20"/>
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="B2:C2"/>
-    <mergeCell ref="E2:F2"/>
-    <mergeCell ref="B4:C4"/>
-    <mergeCell ref="B5:C5"/>
+    <mergeCell ref="B25:C25"/>
+    <mergeCell ref="B24:C24"/>
+    <mergeCell ref="B23:C23"/>
+    <mergeCell ref="B28:C32"/>
+    <mergeCell ref="B26:C26"/>
+    <mergeCell ref="B37:F37"/>
+    <mergeCell ref="B36:F36"/>
+    <mergeCell ref="B33:C33"/>
+    <mergeCell ref="B38:F38"/>
+    <mergeCell ref="B34:F34"/>
   </mergeCells>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0" right="0" top="0" bottom="0" header="0" footer="0"/>
